--- a/tests/tests8/ЛМ 0.2.xlsx
+++ b/tests/tests8/ЛМ 0.2.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.005305300000031821</v>
+        <v>0.005909799999997745</v>
       </c>
       <c r="U2">
         <v>29</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.00585399999999936</v>
+        <v>0.005481700000004253</v>
       </c>
       <c r="U3">
         <v>27</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.004179899999996906</v>
+        <v>0.004266499999999951</v>
       </c>
       <c r="U4">
         <v>23</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.005913099999986571</v>
+        <v>0.005423099999994463</v>
       </c>
       <c r="U5">
         <v>29</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004229699999996228</v>
+        <v>0.006531600000002413</v>
       </c>
       <c r="U6">
         <v>23</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.004423300000041763</v>
+        <v>0.004980799999998453</v>
       </c>
       <c r="U7">
         <v>24</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.004166499999996631</v>
+        <v>0.004126400000004082</v>
       </c>
       <c r="U8">
         <v>19</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.003512000000000626</v>
+        <v>0.00384989999999874</v>
       </c>
       <c r="U9">
         <v>20</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.005781299999966905</v>
+        <v>0.005307000000001949</v>
       </c>
       <c r="U10">
         <v>29</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.002680499999996755</v>
+        <v>0.002827099999997529</v>
       </c>
       <c r="U11">
         <v>14</v>
@@ -1253,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.004397700000026816</v>
+        <v>0.005679100000001824</v>
       </c>
       <c r="U12">
         <v>24</v>
@@ -1321,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.004886199999987184</v>
+        <v>0.004282099999997513</v>
       </c>
       <c r="U13">
         <v>23</v>
@@ -1389,7 +1389,7 @@
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.004334199999959765</v>
+        <v>0.004526200000000813</v>
       </c>
       <c r="U14">
         <v>24</v>
@@ -1457,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.005500799999992978</v>
+        <v>0.006023300000002507</v>
       </c>
       <c r="U15">
         <v>29</v>
@@ -1525,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.005517699999984416</v>
+        <v>0.005596500000002891</v>
       </c>
       <c r="U16">
         <v>29</v>
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.005250900000021375</v>
+        <v>0.005887000000001308</v>
       </c>
       <c r="U17">
         <v>29</v>
@@ -1661,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.004416100000014467</v>
+        <v>0.004822699999998292</v>
       </c>
       <c r="U18">
         <v>24</v>
@@ -1729,7 +1729,7 @@
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.004404000000022279</v>
+        <v>0.005198100000001205</v>
       </c>
       <c r="U19">
         <v>24</v>
@@ -1797,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.005223700000044573</v>
+        <v>0.00543700000000058</v>
       </c>
       <c r="U20">
         <v>29</v>
@@ -1865,7 +1865,7 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.004722500000013952</v>
+        <v>0.005264600000003838</v>
       </c>
       <c r="U21">
         <v>21</v>
@@ -1933,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.005477499999983593</v>
+        <v>0.006774999999997533</v>
       </c>
       <c r="U22">
         <v>30</v>
@@ -2001,7 +2001,7 @@
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.003268400000024485</v>
+        <v>0.003475099999995734</v>
       </c>
       <c r="U23">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.005816799999990963</v>
+        <v>0.004818200000002548</v>
       </c>
       <c r="U24">
         <v>24</v>
@@ -2137,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.005195300000025327</v>
+        <v>0.005915999999999144</v>
       </c>
       <c r="U25">
         <v>29</v>
@@ -2205,7 +2205,7 @@
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.00375339999999369</v>
+        <v>0.004406000000003019</v>
       </c>
       <c r="U26">
         <v>18</v>
@@ -2273,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.003077099999984512</v>
+        <v>0.003165199999997981</v>
       </c>
       <c r="U27">
         <v>15</v>
@@ -2341,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.004751599999963219</v>
+        <v>0.004774099999991677</v>
       </c>
       <c r="U28">
         <v>26</v>
@@ -2409,7 +2409,7 @@
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.005786300000011124</v>
+        <v>0.005928699999998344</v>
       </c>
       <c r="U29">
         <v>28</v>
@@ -2477,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.005834600000014234</v>
+        <v>0.006935499999997319</v>
       </c>
       <c r="U30">
         <v>31</v>
@@ -2545,7 +2545,7 @@
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.005590900000015608</v>
+        <v>0.006139000000004557</v>
       </c>
       <c r="U31">
         <v>31</v>
@@ -2613,7 +2613,7 @@
         <v>22</v>
       </c>
       <c r="T32">
-        <v>0.006076000000007298</v>
+        <v>0.005737199999998666</v>
       </c>
       <c r="U32">
         <v>29</v>
@@ -2681,7 +2681,7 @@
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.004842999999993935</v>
+        <v>0.005729899999991517</v>
       </c>
       <c r="U33">
         <v>27</v>
@@ -2749,7 +2749,7 @@
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.003407499999980246</v>
+        <v>0.003183599999999842</v>
       </c>
       <c r="U34">
         <v>15</v>
@@ -2817,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.005096100000002934</v>
+        <v>0.004519500000000676</v>
       </c>
       <c r="U35">
         <v>24</v>
@@ -2885,7 +2885,7 @@
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.002922799999964809</v>
+        <v>0.00357739999999751</v>
       </c>
       <c r="U36">
         <v>15</v>
@@ -2953,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.005773299999987103</v>
+        <v>0.005129999999994084</v>
       </c>
       <c r="U37">
         <v>27</v>
@@ -3021,7 +3021,7 @@
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.005508500000019012</v>
+        <v>0.005752400000005764</v>
       </c>
       <c r="U38">
         <v>31</v>
@@ -3089,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.004053499999997712</v>
+        <v>0.005447700000004829</v>
       </c>
       <c r="U39">
         <v>20</v>
@@ -3157,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.005372099999988222</v>
+        <v>0.004787600000000225</v>
       </c>
       <c r="U40">
         <v>26</v>
@@ -3225,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.005929299999991144</v>
+        <v>0.005360399999986498</v>
       </c>
       <c r="U41">
         <v>29</v>
@@ -3293,7 +3293,7 @@
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.003955800000028376</v>
+        <v>0.004298500000004424</v>
       </c>
       <c r="U42">
         <v>22</v>
@@ -3361,7 +3361,7 @@
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.005266300000016599</v>
+        <v>0.004290699999998537</v>
       </c>
       <c r="U43">
         <v>23</v>
@@ -3429,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.004965200000015102</v>
+        <v>0.004897600000006719</v>
       </c>
       <c r="U44">
         <v>27</v>
@@ -3497,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.003927099999998518</v>
+        <v>0.004753800000003139</v>
       </c>
       <c r="U45">
         <v>21</v>
@@ -3565,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.005232499999976881</v>
+        <v>0.005169799999990232</v>
       </c>
       <c r="U46">
         <v>27</v>
@@ -3633,7 +3633,7 @@
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.004432800000017778</v>
+        <v>0.004598799999996572</v>
       </c>
       <c r="U47">
         <v>23</v>
@@ -3701,7 +3701,7 @@
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.006891999999993459</v>
+        <v>0.00738079999999286</v>
       </c>
       <c r="U48">
         <v>31</v>
@@ -3769,7 +3769,7 @@
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.003914299999962623</v>
+        <v>0.004011199999993664</v>
       </c>
       <c r="U49">
         <v>21</v>
@@ -3837,7 +3837,7 @@
         <v>22</v>
       </c>
       <c r="T50">
-        <v>0.002006899999969392</v>
+        <v>0.002051100000002748</v>
       </c>
       <c r="U50">
         <v>9</v>
@@ -3905,7 +3905,7 @@
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.004854500000021744</v>
+        <v>0.005366000000009308</v>
       </c>
       <c r="U51">
         <v>23</v>
@@ -3973,7 +3973,7 @@
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.004834499999958553</v>
+        <v>0.004916300000004981</v>
       </c>
       <c r="U52">
         <v>27</v>
@@ -4041,7 +4041,7 @@
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.005602199999998447</v>
+        <v>0.004959400000004166</v>
       </c>
       <c r="U53">
         <v>27</v>
@@ -4109,7 +4109,7 @@
         <v>22</v>
       </c>
       <c r="T54">
-        <v>0.004387599999972736</v>
+        <v>0.005633499999987635</v>
       </c>
       <c r="U54">
         <v>24</v>
@@ -4177,7 +4177,7 @@
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.003613000000029842</v>
+        <v>0.003615099999990434</v>
       </c>
       <c r="U55">
         <v>17</v>
@@ -4245,7 +4245,7 @@
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.005590500000039356</v>
+        <v>0.005132499999987772</v>
       </c>
       <c r="U56">
         <v>27</v>
@@ -4313,7 +4313,7 @@
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.003854699999976674</v>
+        <v>0.004676500000002193</v>
       </c>
       <c r="U57">
         <v>21</v>
@@ -4381,7 +4381,7 @@
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.004661599999963073</v>
+        <v>0.004735600000003615</v>
       </c>
       <c r="U58">
         <v>24</v>
@@ -4449,7 +4449,7 @@
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.003672499999993306</v>
+        <v>0.003869600000001583</v>
       </c>
       <c r="U59">
         <v>20</v>
@@ -4517,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.004705599999965671</v>
+        <v>0.0055401000000046</v>
       </c>
       <c r="U60">
         <v>26</v>
@@ -4585,7 +4585,7 @@
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.006150199999979122</v>
+        <v>0.005178399999991257</v>
       </c>
       <c r="U61">
         <v>28</v>
@@ -4653,7 +4653,7 @@
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.004504199999985303</v>
+        <v>0.004284899999987601</v>
       </c>
       <c r="U62">
         <v>23</v>
@@ -4721,7 +4721,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.00506409999997004</v>
+        <v>0.006271600000005151</v>
       </c>
       <c r="U63">
         <v>28</v>
@@ -4789,7 +4789,7 @@
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.003698599999950147</v>
+        <v>0.003458999999992329</v>
       </c>
       <c r="U64">
         <v>17</v>
@@ -4857,7 +4857,7 @@
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.004979100000014114</v>
+        <v>0.005270200000012437</v>
       </c>
       <c r="U65">
         <v>28</v>
@@ -4925,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.005552899999997862</v>
+        <v>0.006393700000003832</v>
       </c>
       <c r="U66">
         <v>27</v>
@@ -4993,7 +4993,7 @@
         <v>22</v>
       </c>
       <c r="T67">
-        <v>0.004151300000046376</v>
+        <v>0.004365100000001121</v>
       </c>
       <c r="U67">
         <v>23</v>
@@ -5061,7 +5061,7 @@
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.004199700000015127</v>
+        <v>0.004379500000013081</v>
       </c>
       <c r="U68">
         <v>23</v>
@@ -5129,7 +5129,7 @@
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.006292699999960405</v>
+        <v>0.006101900000004434</v>
       </c>
       <c r="U69">
         <v>29</v>
@@ -5197,7 +5197,7 @@
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.004187300000012328</v>
+        <v>0.004270500000004063</v>
       </c>
       <c r="U70">
         <v>23</v>
@@ -5265,7 +5265,7 @@
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.004915299999993294</v>
+        <v>0.004971299999994017</v>
       </c>
       <c r="U71">
         <v>27</v>
@@ -5333,7 +5333,7 @@
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.00549719999997933</v>
+        <v>0.005780799999996589</v>
       </c>
       <c r="U72">
         <v>27</v>
@@ -5401,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.004215100000010352</v>
+        <v>0.004428000000004317</v>
       </c>
       <c r="U73">
         <v>23</v>
@@ -5469,7 +5469,7 @@
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.005015399999990677</v>
+        <v>0.004419699999999693</v>
       </c>
       <c r="U74">
         <v>21</v>
@@ -5537,7 +5537,7 @@
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.005162100000006831</v>
+        <v>0.007009199999998827</v>
       </c>
       <c r="U75">
         <v>29</v>
@@ -5605,7 +5605,7 @@
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.004513599999995677</v>
+        <v>0.004449199999996267</v>
       </c>
       <c r="U76">
         <v>24</v>
@@ -5673,7 +5673,7 @@
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.005942800000013904</v>
+        <v>0.00491179999998792</v>
       </c>
       <c r="U77">
         <v>27</v>
@@ -5741,7 +5741,7 @@
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.005015700000001289</v>
+        <v>0.005201799999994705</v>
       </c>
       <c r="U78">
         <v>27</v>
@@ -5809,7 +5809,7 @@
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.003599099999973987</v>
+        <v>0.004095499999991148</v>
       </c>
       <c r="U79">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.0032423000000108</v>
+        <v>0.003306199999997261</v>
       </c>
       <c r="U80">
         <v>17</v>
@@ -5945,7 +5945,7 @@
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.004991599999982554</v>
+        <v>0.005927600000006805</v>
       </c>
       <c r="U81">
         <v>28</v>
@@ -6013,7 +6013,7 @@
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.006058199999984026</v>
+        <v>0.005447099999997818</v>
       </c>
       <c r="U82">
         <v>29</v>
@@ -6081,7 +6081,7 @@
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.004591200000049867</v>
+        <v>0.004945800000001555</v>
       </c>
       <c r="U83">
         <v>26</v>
@@ -6149,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.004482499999994616</v>
+        <v>0.004661600000005706</v>
       </c>
       <c r="U84">
         <v>24</v>
@@ -6217,7 +6217,7 @@
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.005543499999987489</v>
+        <v>0.005373399999996309</v>
       </c>
       <c r="U85">
         <v>24</v>
@@ -6285,7 +6285,7 @@
         <v>22</v>
       </c>
       <c r="T86">
-        <v>0.0032191000000239</v>
+        <v>0.003275999999999613</v>
       </c>
       <c r="U86">
         <v>17</v>
@@ -6353,7 +6353,7 @@
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.006487300000003415</v>
+        <v>0.005467999999993367</v>
       </c>
       <c r="U87">
         <v>29</v>
@@ -6421,7 +6421,7 @@
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.004306399999961741</v>
+        <v>0.005228900000005865</v>
       </c>
       <c r="U88">
         <v>23</v>
@@ -6489,7 +6489,7 @@
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.005677500000047075</v>
+        <v>0.005758200000002489</v>
       </c>
       <c r="U89">
         <v>30</v>
@@ -6557,7 +6557,7 @@
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.006338600000049155</v>
+        <v>0.005593199999992748</v>
       </c>
       <c r="U90">
         <v>29</v>
@@ -6625,7 +6625,7 @@
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.004882300000019768</v>
+        <v>0.005712000000002604</v>
       </c>
       <c r="U91">
         <v>27</v>
@@ -6693,7 +6693,7 @@
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.004299500000001899</v>
+        <v>0.004262499999995839</v>
       </c>
       <c r="U92">
         <v>23</v>
@@ -6761,7 +6761,7 @@
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.00548390000000154</v>
+        <v>0.004309200000008673</v>
       </c>
       <c r="U93">
         <v>23</v>
@@ -6829,7 +6829,7 @@
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.004313400000000911</v>
+        <v>0.005579699999998411</v>
       </c>
       <c r="U94">
         <v>23</v>
@@ -6897,7 +6897,7 @@
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.00541609999999082</v>
+        <v>0.005480999999988967</v>
       </c>
       <c r="U95">
         <v>29</v>
@@ -6965,7 +6965,7 @@
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.007022000000006301</v>
+        <v>0.00584779999999796</v>
       </c>
       <c r="U96">
         <v>31</v>
@@ -7033,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.004285000000038508</v>
+        <v>0.004317700000001423</v>
       </c>
       <c r="U97">
         <v>23</v>
@@ -7101,7 +7101,7 @@
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.004672199999959048</v>
+        <v>0.005230900000000815</v>
       </c>
       <c r="U98">
         <v>24</v>
@@ -7169,7 +7169,7 @@
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.005677599999955873</v>
+        <v>0.005478499999995279</v>
       </c>
       <c r="U99">
         <v>29</v>
@@ -7237,7 +7237,7 @@
         <v>22</v>
       </c>
       <c r="T100">
-        <v>0.008142700000007608</v>
+        <v>0.005906700000011256</v>
       </c>
       <c r="U100">
         <v>31</v>
@@ -7305,7 +7305,7 @@
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.006225000000029013</v>
+        <v>0.006426599999997507</v>
       </c>
       <c r="U101">
         <v>30</v>

--- a/tests/tests8/ЛМ 0.2.xlsx
+++ b/tests/tests8/ЛМ 0.2.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.004290100000048369</v>
+        <v>0.003787900000002509</v>
       </c>
       <c r="U2">
         <v>19</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.002474600000027749</v>
+        <v>0.002478800000002224</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.002734400000008463</v>
+        <v>0.001770999999997969</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.00870559999998477</v>
+        <v>0.004507200000002598</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004672699999900942</v>
+        <v>0.005495400000000927</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.002161799999953473</v>
+        <v>0.00197119999999984</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005422999999950662</v>
+        <v>0.005195000000000505</v>
       </c>
       <c r="U8">
         <v>27</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.001798399999984213</v>
+        <v>0.001807199999998232</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.004969699999946897</v>
+        <v>0.004241099999997999</v>
       </c>
       <c r="U10">
         <v>23</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.001620200000047589</v>
+        <v>0.00161380000000122</v>
       </c>
       <c r="U11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.2.xlsx
+++ b/tests/tests8/ЛМ 0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>П0_ист</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>V0_апр</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -440,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +519,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.9790294379337</v>
+        <v>-0.007845282318007962</v>
       </c>
       <c r="F2">
-        <v>9.95577571324082</v>
+        <v>10.05310409514115</v>
       </c>
       <c r="G2">
-        <v>98.59127024169581</v>
+        <v>11.54520212052822</v>
       </c>
       <c r="H2">
-        <v>11.55784937596933</v>
+        <v>-1.791877145533999</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -552,37 +564,43 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.00562634553242868</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="N2">
-        <v>0.08015015939960628</v>
+        <v>15.80711097780685</v>
       </c>
       <c r="O2">
-        <v>0.1271631794355561</v>
+        <v>0.005703644452882044</v>
       </c>
       <c r="P2">
-        <v>0.02994652898157891</v>
+        <v>0.08183956038356677</v>
       </c>
       <c r="Q2">
-        <v>0.03748953863938347</v>
+        <v>0.1295123938313701</v>
       </c>
       <c r="R2">
-        <v>0.02276400494870186</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
+        <v>0.0307887400421622</v>
+      </c>
+      <c r="S2">
+        <v>0.03996040259371694</v>
       </c>
       <c r="T2">
-        <v>0.003787900000002509</v>
-      </c>
-      <c r="U2">
+        <v>0.04584261437936957</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>0.003698599999552243</v>
+      </c>
+      <c r="W2">
         <v>19</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>0</v>
       </c>
@@ -596,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.9295239317128</v>
+        <v>0.001886346467214622</v>
       </c>
       <c r="F3">
-        <v>10.1091455811857</v>
+        <v>9.931247753510654</v>
       </c>
       <c r="G3">
-        <v>75.15131479333817</v>
+        <v>11.13509544449189</v>
       </c>
       <c r="H3">
-        <v>11.84428361854974</v>
+        <v>2.985469756689282</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -620,37 +638,43 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.005745361290650547</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="N3">
-        <v>0.06473230628629736</v>
+        <v>18.32782196423818</v>
       </c>
       <c r="O3">
-        <v>0.1039357053469792</v>
+        <v>0.005592588859532737</v>
       </c>
       <c r="P3">
-        <v>0.02368575520227926</v>
+        <v>0.06210229128762334</v>
       </c>
       <c r="Q3">
-        <v>0.03889100759205776</v>
+        <v>0.09958950644045977</v>
       </c>
       <c r="R3">
-        <v>0.08101842726269173</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
+        <v>0.02305190181832624</v>
+      </c>
+      <c r="S3">
+        <v>0.03976409115943833</v>
       </c>
       <c r="T3">
-        <v>0.002478800000002224</v>
-      </c>
-      <c r="U3">
+        <v>0.05065074228083812</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>0.002451299999847834</v>
+      </c>
+      <c r="W3">
         <v>12</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -664,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.02307376552745153</v>
+        <v>0.005081227965315738</v>
       </c>
       <c r="F4">
-        <v>10.01464727999937</v>
+        <v>10.01500547831864</v>
       </c>
       <c r="G4">
-        <v>78.82724694107792</v>
+        <v>3.227673186947187</v>
       </c>
       <c r="H4">
-        <v>3.299144570360401</v>
+        <v>0.6216151110388594</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -688,37 +712,43 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>0.004590079022380048</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="N4">
-        <v>0.02837728290653245</v>
+        <v>9.618122158119826</v>
       </c>
       <c r="O4">
-        <v>0.02638306007623357</v>
+        <v>0.004587228921076653</v>
       </c>
       <c r="P4">
-        <v>0.02602610454677655</v>
+        <v>0.02833309461711181</v>
       </c>
       <c r="Q4">
-        <v>0.03936103202597657</v>
+        <v>0.02633120784914685</v>
       </c>
       <c r="R4">
-        <v>0.02595167000680473</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
+        <v>0.02597131832030117</v>
+      </c>
+      <c r="S4">
+        <v>0.04219162228248505</v>
       </c>
       <c r="T4">
-        <v>0.001770999999997969</v>
-      </c>
-      <c r="U4">
+        <v>0.0465169303939429</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>0.001777299999957904</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -732,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.03818001677012539</v>
+        <v>0.007335112915846667</v>
       </c>
       <c r="F5">
-        <v>9.95845676035677</v>
+        <v>9.964116486974788</v>
       </c>
       <c r="G5">
-        <v>99.2769952011348</v>
+        <v>11.26837541526928</v>
       </c>
       <c r="H5">
-        <v>11.40175779257138</v>
+        <v>-1.82305599706724</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -756,37 +786,43 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.005562614486632658</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="N5">
-        <v>0.0797752178994067</v>
+        <v>15.67687823027242</v>
       </c>
       <c r="O5">
-        <v>0.1251492967880105</v>
+        <v>0.005563037127268856</v>
       </c>
       <c r="P5">
-        <v>0.03063219619799026</v>
+        <v>0.07982612935534374</v>
       </c>
       <c r="Q5">
-        <v>0.03807981164748584</v>
+        <v>0.1252971320224593</v>
       </c>
       <c r="R5">
-        <v>0.04068029784205589</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
+        <v>0.03051367500733841</v>
+      </c>
+      <c r="S5">
+        <v>0.04183295291241124</v>
       </c>
       <c r="T5">
-        <v>0.004507200000002598</v>
-      </c>
-      <c r="U5">
+        <v>0.03085025716506586</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
+        <v>0.003721300000506744</v>
+      </c>
+      <c r="W5">
         <v>19</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -800,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9747240448171</v>
+        <v>-0.002223513793106329</v>
       </c>
       <c r="F6">
-        <v>10.00845238259055</v>
+        <v>10.03191614222383</v>
       </c>
       <c r="G6">
-        <v>174.0214900782947</v>
+        <v>1.001051352560785</v>
       </c>
       <c r="H6">
-        <v>9.577779065186228</v>
+        <v>-9.553022434677146</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -824,37 +860,43 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>0.002060628490921434</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="N6">
-        <v>0.0243478163162175</v>
+        <v>4.673171010711503</v>
       </c>
       <c r="O6">
-        <v>0.007725057455911776</v>
+        <v>0.002066424441663721</v>
       </c>
       <c r="P6">
-        <v>0.02970942781272988</v>
+        <v>0.02446039568803283</v>
       </c>
       <c r="Q6">
-        <v>0.03660867110383458</v>
+        <v>0.007750336684897744</v>
       </c>
       <c r="R6">
-        <v>0.01169720019089072</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
+        <v>0.02984349080459393</v>
+      </c>
+      <c r="S6">
+        <v>0.03756270267585087</v>
       </c>
       <c r="T6">
-        <v>0.005495400000000927</v>
-      </c>
-      <c r="U6">
+        <v>0.02909902487239437</v>
+      </c>
+      <c r="U6" t="s">
         <v>24</v>
       </c>
       <c r="V6">
+        <v>0.01359939999929338</v>
+      </c>
+      <c r="W6">
+        <v>24</v>
+      </c>
+      <c r="X6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -868,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>0.01884972499380367</v>
+        <v>-0.005846655850444757</v>
       </c>
       <c r="F7">
-        <v>9.963957924577429</v>
+        <v>10.03448924398463</v>
       </c>
       <c r="G7">
-        <v>39.85553861533656</v>
+        <v>8.701869025363818</v>
       </c>
       <c r="H7">
-        <v>13.40732968636353</v>
+        <v>10.36995500669944</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -892,37 +934,43 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>0.005839758493371985</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="N7">
-        <v>0.05607481150206529</v>
+        <v>22.87529985576693</v>
       </c>
       <c r="O7">
-        <v>0.07213478723938867</v>
+        <v>0.005893647870823466</v>
       </c>
       <c r="P7">
-        <v>0.07230268020392129</v>
+        <v>0.05694997014287696</v>
       </c>
       <c r="Q7">
-        <v>0.03951040237999551</v>
+        <v>0.0733970972580837</v>
       </c>
       <c r="R7">
-        <v>0.02100688866434174</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
+        <v>0.07321817797914508</v>
+      </c>
+      <c r="S7">
+        <v>0.03838540782210936</v>
       </c>
       <c r="T7">
-        <v>0.00197119999999984</v>
-      </c>
-      <c r="U7">
+        <v>0.03152364519329309</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>0.003393599999981234</v>
+      </c>
+      <c r="W7">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -936,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>359.9859169313488</v>
+        <v>-0.008494624799924433</v>
       </c>
       <c r="F8">
-        <v>9.990382678039058</v>
+        <v>10.1137173784244</v>
       </c>
       <c r="G8">
-        <v>160.6747232232123</v>
+        <v>2.378911223009395</v>
       </c>
       <c r="H8">
-        <v>6.975280085793884</v>
+        <v>-6.694479091053062</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -960,37 +1008,43 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>0.005207770972241849</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="N8">
-        <v>0.07968133783819675</v>
+        <v>3.973338297383755</v>
       </c>
       <c r="O8">
-        <v>0.04908341160367984</v>
+        <v>0.005319830212948801</v>
       </c>
       <c r="P8">
-        <v>0.07163547574998437</v>
+        <v>0.08185117492185963</v>
       </c>
       <c r="Q8">
-        <v>0.03710182662041839</v>
+        <v>0.05035955916945</v>
       </c>
       <c r="R8">
-        <v>0.009161003030609526</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
+        <v>0.07360285446315253</v>
+      </c>
+      <c r="S8">
+        <v>0.0370988574924753</v>
       </c>
       <c r="T8">
-        <v>0.005195000000000505</v>
-      </c>
-      <c r="U8">
+        <v>0.08705487136987972</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8">
+        <v>0.005594800000835676</v>
+      </c>
+      <c r="W8">
         <v>27</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1004,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.999046717874</v>
+        <v>0.004331714342493465</v>
       </c>
       <c r="F9">
-        <v>9.927581039822906</v>
+        <v>9.921697098783087</v>
       </c>
       <c r="G9">
-        <v>13.60867692805492</v>
+        <v>2.878956084890694</v>
       </c>
       <c r="H9">
-        <v>12.41685274415186</v>
+        <v>11.87399822162399</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1028,37 +1082,43 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.005367434061107731</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="N9">
-        <v>0.06302959329242423</v>
+        <v>22.28974380606835</v>
       </c>
       <c r="O9">
-        <v>0.03266210600929957</v>
+        <v>0.0053520384584579</v>
       </c>
       <c r="P9">
-        <v>0.110353384409455</v>
+        <v>0.06248638056653922</v>
       </c>
       <c r="Q9">
-        <v>0.03653506671983478</v>
+        <v>0.0322478970558174</v>
       </c>
       <c r="R9">
-        <v>0.02717589612681864</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
+        <v>0.1091372684385531</v>
+      </c>
+      <c r="S9">
+        <v>0.03796575725247462</v>
       </c>
       <c r="T9">
-        <v>0.001807199999998232</v>
-      </c>
-      <c r="U9">
+        <v>0.05673371638734677</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>0.001676500000030501</v>
+      </c>
+      <c r="W9">
         <v>8</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1072,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>0.02039823346749173</v>
+        <v>-0.0007968315689983511</v>
       </c>
       <c r="F10">
-        <v>10.01603935011487</v>
+        <v>9.977852176273981</v>
       </c>
       <c r="G10">
-        <v>157.2386058134205</v>
+        <v>5.649425221413447</v>
       </c>
       <c r="H10">
-        <v>14.64499676989922</v>
+        <v>-13.44641473998706</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1096,37 +1156,43 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>0.002599714154247085</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="N10">
-        <v>0.03445301968495116</v>
+        <v>11.86534188679525</v>
       </c>
       <c r="O10">
-        <v>0.02871897001789211</v>
+        <v>0.002592120563653885</v>
       </c>
       <c r="P10">
-        <v>0.05533516850179935</v>
+        <v>0.03420804706471994</v>
       </c>
       <c r="Q10">
-        <v>0.0434764898693411</v>
+        <v>0.02857282463932315</v>
       </c>
       <c r="R10">
-        <v>0.01215393802380898</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
+        <v>0.05495518153722688</v>
+      </c>
+      <c r="S10">
+        <v>0.04376989819565949</v>
       </c>
       <c r="T10">
-        <v>0.004241099999997999</v>
-      </c>
-      <c r="U10">
+        <v>0.0119110190890179</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>0.004248799999913899</v>
+      </c>
+      <c r="W10">
         <v>23</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1140,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>8.433583630956279E-05</v>
+        <v>-0.001304025478669003</v>
       </c>
       <c r="F11">
-        <v>10.08019360448041</v>
+        <v>10.04891719254466</v>
       </c>
       <c r="G11">
-        <v>1.874391113348068</v>
+        <v>0.296392386453829</v>
       </c>
       <c r="H11">
-        <v>8.91403073159359</v>
+        <v>8.973007978047987</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1164,33 +1230,39 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>0.004293860692566948</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="N11">
-        <v>0.08624468421040402</v>
+        <v>18.26849864379155</v>
       </c>
       <c r="O11">
-        <v>0.01592371168484881</v>
+        <v>0.004283989606378098</v>
       </c>
       <c r="P11">
-        <v>0.1397530459391629</v>
+        <v>0.08614680363665195</v>
       </c>
       <c r="Q11">
-        <v>0.03931259568083927</v>
+        <v>0.01594115389130443</v>
       </c>
       <c r="R11">
-        <v>0.04361664454190105</v>
-      </c>
-      <c r="S11" t="s">
-        <v>22</v>
+        <v>0.1397164551276471</v>
+      </c>
+      <c r="S11">
+        <v>0.04188200802758502</v>
       </c>
       <c r="T11">
-        <v>0.00161380000000122</v>
-      </c>
-      <c r="U11">
-        <v>7</v>
+        <v>0.01491636622615595</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
       </c>
       <c r="V11">
+        <v>0.001641000000745407</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.2.xlsx
+++ b/tests/tests8/ЛМ 0.2.xlsx
@@ -540,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.007845282318007962</v>
+        <v>359.9552872953062</v>
       </c>
       <c r="F2">
-        <v>10.05310409514115</v>
+        <v>10.05310715630737</v>
       </c>
       <c r="G2">
-        <v>11.54520212052822</v>
+        <v>98.82222232471447</v>
       </c>
       <c r="H2">
-        <v>-1.791877145533999</v>
+        <v>11.68342910743829</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="V2">
-        <v>0.003698599999552243</v>
+        <v>0.004138900000000056</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -614,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>0.001886346467214622</v>
+        <v>0.0108827906274743</v>
       </c>
       <c r="F3">
-        <v>9.931247753510654</v>
+        <v>9.931247932657477</v>
       </c>
       <c r="G3">
-        <v>11.13509544449189</v>
+        <v>74.99121520529738</v>
       </c>
       <c r="H3">
-        <v>2.985469756689282</v>
+        <v>11.52837283514245</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="V3">
-        <v>0.002451299999847834</v>
+        <v>0.002441099999999974</v>
       </c>
       <c r="W3">
         <v>12</v>
@@ -688,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.005081227965315738</v>
+        <v>0.02906966878909377</v>
       </c>
       <c r="F4">
-        <v>10.01500547831864</v>
+        <v>10.01500676732821</v>
       </c>
       <c r="G4">
-        <v>3.227673186947187</v>
+        <v>79.09891782316662</v>
       </c>
       <c r="H4">
-        <v>0.6216151110388594</v>
+        <v>3.28698639303689</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="V4">
-        <v>0.001777299999957904</v>
+        <v>0.002030099999999813</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -762,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.007335112915846667</v>
+        <v>0.04217844471824311</v>
       </c>
       <c r="F5">
-        <v>9.964116486974788</v>
+        <v>9.964119186856623</v>
       </c>
       <c r="G5">
-        <v>11.26837541526928</v>
+        <v>99.1899785076864</v>
       </c>
       <c r="H5">
-        <v>-1.82305599706724</v>
+        <v>11.41489455351594</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="V5">
-        <v>0.003721300000506744</v>
+        <v>0.004030999999999896</v>
       </c>
       <c r="W5">
         <v>19</v>
@@ -836,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.002223513793106329</v>
+        <v>359.9873007357576</v>
       </c>
       <c r="F6">
-        <v>10.03191614222383</v>
+        <v>10.03191638863805</v>
       </c>
       <c r="G6">
-        <v>1.001051352560785</v>
+        <v>174.0178667607425</v>
       </c>
       <c r="H6">
-        <v>-9.553022434677146</v>
+        <v>9.605328804778555</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="V6">
-        <v>0.01359939999929338</v>
+        <v>0.004381199999999641</v>
       </c>
       <c r="W6">
         <v>24</v>
@@ -910,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.005846655850444757</v>
+        <v>359.9666162712977</v>
       </c>
       <c r="F7">
-        <v>10.03448924398463</v>
+        <v>10.03449094727918</v>
       </c>
       <c r="G7">
-        <v>8.701869025363818</v>
+        <v>40.00143826833168</v>
       </c>
       <c r="H7">
-        <v>10.36995500669944</v>
+        <v>13.53730000316005</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="V7">
-        <v>0.003393599999981234</v>
+        <v>0.001820799999999956</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -984,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>-0.008494624799924433</v>
+        <v>359.95187664269</v>
       </c>
       <c r="F8">
-        <v>10.1137173784244</v>
+        <v>10.11372094578915</v>
       </c>
       <c r="G8">
-        <v>2.378911223009395</v>
+        <v>160.4371171441615</v>
       </c>
       <c r="H8">
-        <v>-6.694479091053062</v>
+        <v>7.104594915088875</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="V8">
-        <v>0.005594800000835676</v>
+        <v>0.004976899999999951</v>
       </c>
       <c r="W8">
         <v>27</v>
@@ -1058,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>0.004331714342493465</v>
+        <v>0.02501476628856148</v>
       </c>
       <c r="F9">
-        <v>9.921697098783087</v>
+        <v>9.921698044374756</v>
       </c>
       <c r="G9">
-        <v>2.878956084890694</v>
+        <v>13.62886824709869</v>
       </c>
       <c r="H9">
-        <v>11.87399822162399</v>
+        <v>12.21802856052721</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="V9">
-        <v>0.001676500000030501</v>
+        <v>0.001621399999999884</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1132,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.0007968315689983511</v>
+        <v>359.9954243573684</v>
       </c>
       <c r="F10">
-        <v>9.977852176273981</v>
+        <v>9.977852208091477</v>
       </c>
       <c r="G10">
-        <v>5.649425221413447</v>
+        <v>157.2106002312273</v>
       </c>
       <c r="H10">
-        <v>-13.44641473998706</v>
+        <v>14.58499484717371</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="V10">
-        <v>0.004248799999913899</v>
+        <v>0.004586699999999944</v>
       </c>
       <c r="W10">
         <v>23</v>
@@ -1206,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-0.001304025478669003</v>
+        <v>359.9925648550531</v>
       </c>
       <c r="F11">
-        <v>10.04891719254466</v>
+        <v>10.04891727715489</v>
       </c>
       <c r="G11">
-        <v>0.296392386453829</v>
+        <v>1.89188069747432</v>
       </c>
       <c r="H11">
-        <v>8.973007978047987</v>
+        <v>8.977901793897091</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>24</v>
       </c>
       <c r="V11">
-        <v>0.001641000000745407</v>
+        <v>0.001423099999999788</v>
       </c>
       <c r="W11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.2.xlsx
+++ b/tests/tests8/ЛМ 0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +531,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -564,43 +576,49 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="N2">
         <v>15.80711097780685</v>
       </c>
       <c r="O2">
+        <v>70.60603944132164</v>
+      </c>
+      <c r="P2">
+        <v>15.92020078444004</v>
+      </c>
+      <c r="Q2">
         <v>0.005703644452882044</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.08183956038356677</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.1295123938313701</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.0307887400421622</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.03996040259371694</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.04584261437936957</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2">
-        <v>0.004138900000000056</v>
-      </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>0.00446930000001089</v>
+      </c>
+      <c r="Y2">
         <v>19</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>0</v>
       </c>
@@ -638,43 +656,49 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="N3">
         <v>18.32782196423818</v>
       </c>
       <c r="O3">
+        <v>53.13866180851178</v>
+      </c>
+      <c r="P3">
+        <v>18.16603362449591</v>
+      </c>
+      <c r="Q3">
         <v>0.005592588859532737</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.06210229128762334</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.09958950644045977</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.02305190181832624</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.03976409115943833</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.05065074228083812</v>
       </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3">
-        <v>0.002441099999999974</v>
-      </c>
-      <c r="W3">
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>0.002489700000012363</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0</v>
       </c>
@@ -712,43 +736,49 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="N4">
         <v>9.618122158119826</v>
       </c>
       <c r="O4">
+        <v>31.79435402236046</v>
+      </c>
+      <c r="P4">
+        <v>9.582484535352451</v>
+      </c>
+      <c r="Q4">
         <v>0.004587228921076653</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.02833309461711181</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.02633120784914685</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.02597131832030117</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.04219162228248505</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.0465169303939429</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4">
-        <v>0.002030099999999813</v>
-      </c>
-      <c r="W4">
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>0.001693700000004128</v>
+      </c>
+      <c r="Y4">
         <v>8</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>0</v>
       </c>
@@ -786,43 +816,49 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="N5">
         <v>15.67687823027242</v>
       </c>
       <c r="O5">
+        <v>70.65738922925529</v>
+      </c>
+      <c r="P5">
+        <v>15.57921003111064</v>
+      </c>
+      <c r="Q5">
         <v>0.005563037127268856</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.07982612935534374</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.1252971320224593</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.03051367500733841</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.04183295291241124</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.03085025716506586</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5">
-        <v>0.004030999999999896</v>
-      </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>0.003500399999978754</v>
+      </c>
+      <c r="Y5">
         <v>19</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0</v>
       </c>
@@ -860,43 +896,49 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="N6">
         <v>4.673171010711503</v>
       </c>
       <c r="O6">
+        <v>149.6579274684753</v>
+      </c>
+      <c r="P6">
+        <v>4.69056400651486</v>
+      </c>
+      <c r="Q6">
         <v>0.002066424441663721</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.02446039568803283</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.007750336684897744</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.02984349080459393</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.03756270267585087</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.02909902487239437</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6">
+        <v>0.004516899999998714</v>
+      </c>
+      <c r="Y6">
         <v>24</v>
       </c>
-      <c r="V6">
-        <v>0.004381199999999641</v>
-      </c>
-      <c r="W6">
-        <v>24</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>0</v>
       </c>
@@ -934,43 +976,49 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="N7">
         <v>22.87529985576693</v>
       </c>
       <c r="O7">
+        <v>30.30084320141473</v>
+      </c>
+      <c r="P7">
+        <v>23.00480188100631</v>
+      </c>
+      <c r="Q7">
         <v>0.005893647870823466</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.05694997014287696</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.0733970972580837</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.07321817797914508</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.03838540782210936</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.03152364519329309</v>
       </c>
-      <c r="U7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7">
-        <v>0.001820799999999956</v>
-      </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>0.00189040000000773</v>
+      </c>
+      <c r="Y7">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1008,43 +1056,49 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="N8">
         <v>3.973338297383755</v>
       </c>
       <c r="O8">
+        <v>97.60117828829556</v>
+      </c>
+      <c r="P8">
+        <v>4.052260947425477</v>
+      </c>
+      <c r="Q8">
         <v>0.005319830212948801</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.08185117492185963</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.05035955916945</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.07360285446315253</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.0370988574924753</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.08705487136987972</v>
       </c>
-      <c r="U8" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8">
-        <v>0.004976899999999951</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8">
+        <v>0.007561899999984689</v>
+      </c>
+      <c r="Y8">
         <v>27</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1082,43 +1136,49 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="N9">
         <v>22.28974380606835</v>
       </c>
       <c r="O9">
+        <v>12.12217858036828</v>
+      </c>
+      <c r="P9">
+        <v>22.04570717206067</v>
+      </c>
+      <c r="Q9">
         <v>0.0053520384584579</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.06248638056653922</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.0322478970558174</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.1091372684385531</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.03796575725247462</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.05673371638734677</v>
       </c>
-      <c r="U9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9">
-        <v>0.001621399999999884</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <v>0.001915700000012066</v>
+      </c>
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1156,43 +1216,49 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="N10">
         <v>11.86534188679525</v>
       </c>
       <c r="O10">
+        <v>137.8250894975366</v>
+      </c>
+      <c r="P10">
+        <v>11.83945993816247</v>
+      </c>
+      <c r="Q10">
         <v>0.002592120563653885</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.03420804706471994</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.02857282463932315</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.05495518153722688</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.04376989819565949</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.0119110190890179</v>
       </c>
-      <c r="U10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10">
-        <v>0.004586699999999944</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>0.00624080000000049</v>
+      </c>
+      <c r="Y10">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1230,39 +1296,45 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="N11">
         <v>18.26849864379155</v>
       </c>
       <c r="O11">
+        <v>4.789091483580427</v>
+      </c>
+      <c r="P11">
+        <v>18.26392781482533</v>
+      </c>
+      <c r="Q11">
         <v>0.004283989606378098</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.08614680363665195</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.01594115389130443</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.1397164551276471</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.04188200802758502</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.01491636622615595</v>
       </c>
-      <c r="U11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11">
-        <v>0.001423099999999788</v>
-      </c>
-      <c r="W11">
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>0.001532900000000836</v>
+      </c>
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.2.xlsx
+++ b/tests/tests8/ЛМ 0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +609,7 @@
         <v>26</v>
       </c>
       <c r="X2">
-        <v>0.00446930000001089</v>
+        <v>0.003672999999992044</v>
       </c>
       <c r="Y2">
         <v>19</v>
@@ -689,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="X3">
-        <v>0.002489700000012363</v>
+        <v>0.002332999999993035</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="X4">
-        <v>0.001693700000004128</v>
+        <v>0.001784100000008948</v>
       </c>
       <c r="Y4">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="X5">
-        <v>0.003500399999978754</v>
+        <v>0.003483199999976705</v>
       </c>
       <c r="Y5">
         <v>19</v>
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="X6">
-        <v>0.004516899999998714</v>
+        <v>0.005946800000003805</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -1009,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="X7">
-        <v>0.00189040000000773</v>
+        <v>0.001866799999987734</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="X8">
-        <v>0.007561899999984689</v>
+        <v>0.00636790000001497</v>
       </c>
       <c r="Y8">
         <v>27</v>
@@ -1169,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="X9">
-        <v>0.001915700000012066</v>
+        <v>0.001624200000009068</v>
       </c>
       <c r="Y9">
         <v>8</v>
@@ -1249,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="X10">
-        <v>0.00624080000000049</v>
+        <v>0.005761500000005526</v>
       </c>
       <c r="Y10">
         <v>23</v>
@@ -1329,13 +1329,7213 @@
         <v>26</v>
       </c>
       <c r="X11">
-        <v>0.001532900000000836</v>
+        <v>0.001522899999997662</v>
       </c>
       <c r="Y11">
         <v>7</v>
       </c>
       <c r="Z11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.9872228403732</v>
+      </c>
+      <c r="F12">
+        <v>9.999342563335309</v>
+      </c>
+      <c r="G12">
+        <v>138.8431075538348</v>
+      </c>
+      <c r="H12">
+        <v>3.251318249049051</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="N12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="O12">
+        <v>40.04368645142697</v>
+      </c>
+      <c r="P12">
+        <v>5.806824978736325</v>
+      </c>
+      <c r="Q12">
+        <v>0.004185579805326495</v>
+      </c>
+      <c r="R12">
+        <v>0.02213986193890909</v>
+      </c>
+      <c r="S12">
+        <v>0.02027104287742214</v>
+      </c>
+      <c r="T12">
+        <v>0.01475253752513058</v>
+      </c>
+      <c r="U12">
+        <v>0.03559066354361987</v>
+      </c>
+      <c r="V12">
+        <v>0.006087360796112361</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>0.003032700000005661</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>0.01108887306643417</v>
+      </c>
+      <c r="F13">
+        <v>9.936682282247563</v>
+      </c>
+      <c r="G13">
+        <v>32.07559238242624</v>
+      </c>
+      <c r="H13">
+        <v>3.210591069008592</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="N13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="O13">
+        <v>16.911747320466</v>
+      </c>
+      <c r="P13">
+        <v>11.06335211144721</v>
+      </c>
+      <c r="Q13">
+        <v>0.004370748885460699</v>
+      </c>
+      <c r="R13">
+        <v>0.03281628772096388</v>
+      </c>
+      <c r="S13">
+        <v>0.01898504294712307</v>
+      </c>
+      <c r="T13">
+        <v>0.04876450114911673</v>
+      </c>
+      <c r="U13">
+        <v>0.03850347298114844</v>
+      </c>
+      <c r="V13">
+        <v>0.05376667622432692</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>0.00258200000001807</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>0.01213777462602798</v>
+      </c>
+      <c r="F14">
+        <v>10.04434153499795</v>
+      </c>
+      <c r="G14">
+        <v>27.77229794753674</v>
+      </c>
+      <c r="H14">
+        <v>12.00227923537933</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="N14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="O14">
+        <v>21.3470345136107</v>
+      </c>
+      <c r="P14">
+        <v>21.6574707192275</v>
+      </c>
+      <c r="Q14">
+        <v>0.005666019144142205</v>
+      </c>
+      <c r="R14">
+        <v>0.052947113891446</v>
+      </c>
+      <c r="S14">
+        <v>0.04883174399202728</v>
+      </c>
+      <c r="T14">
+        <v>0.08088225679723647</v>
+      </c>
+      <c r="U14">
+        <v>0.0402897312768687</v>
+      </c>
+      <c r="V14">
+        <v>0.04590695198863631</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14">
+        <v>0.00167089999999348</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>359.9984167992001</v>
+      </c>
+      <c r="F15">
+        <v>10.02143012564852</v>
+      </c>
+      <c r="G15">
+        <v>139.9438232633893</v>
+      </c>
+      <c r="H15">
+        <v>5.872401631750106</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="N15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="O15">
+        <v>70.58036301493067</v>
+      </c>
+      <c r="P15">
+        <v>6.049266538553641</v>
+      </c>
+      <c r="Q15">
+        <v>0.004773530937640534</v>
+      </c>
+      <c r="R15">
+        <v>0.0450907767099091</v>
+      </c>
+      <c r="S15">
+        <v>0.04025980184278477</v>
+      </c>
+      <c r="T15">
+        <v>0.02693077636662996</v>
+      </c>
+      <c r="U15">
+        <v>0.03508544879730545</v>
+      </c>
+      <c r="V15">
+        <v>0.02208260385973367</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>0.003911400000021104</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+      <c r="Z15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>0.03571562546560766</v>
+      </c>
+      <c r="F16">
+        <v>9.955611946858067</v>
+      </c>
+      <c r="G16">
+        <v>92.443329195883</v>
+      </c>
+      <c r="H16">
+        <v>12.21769932442705</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="N16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="O16">
+        <v>67.00892975949826</v>
+      </c>
+      <c r="P16">
+        <v>17.19004920600653</v>
+      </c>
+      <c r="Q16">
+        <v>0.00564085713933216</v>
+      </c>
+      <c r="R16">
+        <v>0.07882553417721969</v>
+      </c>
+      <c r="S16">
+        <v>0.1317861152841072</v>
+      </c>
+      <c r="T16">
+        <v>0.02094318878661928</v>
+      </c>
+      <c r="U16">
+        <v>0.04152082923557207</v>
+      </c>
+      <c r="V16">
+        <v>0.02332274160186141</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>0.003772599999990689</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.009782355422370005</v>
+      </c>
+      <c r="F17">
+        <v>9.990511815221344</v>
+      </c>
+      <c r="G17">
+        <v>152.8278848953304</v>
+      </c>
+      <c r="H17">
+        <v>5.138705171387066</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="N17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="O17">
+        <v>64.66425202628012</v>
+      </c>
+      <c r="P17">
+        <v>4.412580940803225</v>
+      </c>
+      <c r="Q17">
+        <v>0.004456631142312479</v>
+      </c>
+      <c r="R17">
+        <v>0.03345093058950746</v>
+      </c>
+      <c r="S17">
+        <v>0.02750737920212373</v>
+      </c>
+      <c r="T17">
+        <v>0.01869448528685848</v>
+      </c>
+      <c r="U17">
+        <v>0.04006631776166648</v>
+      </c>
+      <c r="V17">
+        <v>0.008301562724309684</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>0.003914400000013529</v>
+      </c>
+      <c r="Y17">
+        <v>21</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>0.01957858247511486</v>
+      </c>
+      <c r="F18">
+        <v>9.91890130921114</v>
+      </c>
+      <c r="G18">
+        <v>40.12614707599386</v>
+      </c>
+      <c r="H18">
+        <v>9.136739334190539</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="N18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="O18">
+        <v>27.71309685435592</v>
+      </c>
+      <c r="P18">
+        <v>17.71851760850205</v>
+      </c>
+      <c r="Q18">
+        <v>0.005363691529112301</v>
+      </c>
+      <c r="R18">
+        <v>0.04431658327587783</v>
+      </c>
+      <c r="S18">
+        <v>0.04700482340864359</v>
+      </c>
+      <c r="T18">
+        <v>0.05343662117646171</v>
+      </c>
+      <c r="U18">
+        <v>0.03404551413222601</v>
+      </c>
+      <c r="V18">
+        <v>0.06794589244753552</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18">
+        <v>0.001821900000010146</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9669712216182</v>
+      </c>
+      <c r="F19">
+        <v>9.972590941150495</v>
+      </c>
+      <c r="G19">
+        <v>52.90819038203068</v>
+      </c>
+      <c r="H19">
+        <v>9.388493620074836</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="N19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="O19">
+        <v>35.65466032856141</v>
+      </c>
+      <c r="P19">
+        <v>17.41540305812658</v>
+      </c>
+      <c r="Q19">
+        <v>0.005448238883298366</v>
+      </c>
+      <c r="R19">
+        <v>0.04688926034839021</v>
+      </c>
+      <c r="S19">
+        <v>0.05870375277286903</v>
+      </c>
+      <c r="T19">
+        <v>0.04219993936132078</v>
+      </c>
+      <c r="U19">
+        <v>0.04123271281946746</v>
+      </c>
+      <c r="V19">
+        <v>0.01432946667463553</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19">
+        <v>0.002131300000002057</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9350745369132</v>
+      </c>
+      <c r="F20">
+        <v>10.08694659213219</v>
+      </c>
+      <c r="G20">
+        <v>117.0117212252882</v>
+      </c>
+      <c r="H20">
+        <v>9.199803271043407</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="N20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="O20">
+        <v>77.404687666903</v>
+      </c>
+      <c r="P20">
+        <v>11.26561154809142</v>
+      </c>
+      <c r="Q20">
+        <v>0.005483225130298816</v>
+      </c>
+      <c r="R20">
+        <v>0.07696970186550624</v>
+      </c>
+      <c r="S20">
+        <v>0.09526470448402008</v>
+      </c>
+      <c r="T20">
+        <v>0.04732511060500919</v>
+      </c>
+      <c r="U20">
+        <v>0.04090173244225009</v>
+      </c>
+      <c r="V20">
+        <v>0.0686450757040425</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>0.005300500000004149</v>
+      </c>
+      <c r="Y20">
+        <v>22</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9983851381035</v>
+      </c>
+      <c r="F21">
+        <v>9.966895198834363</v>
+      </c>
+      <c r="G21">
+        <v>17.51808209486342</v>
+      </c>
+      <c r="H21">
+        <v>12.17814944458837</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="N21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="O21">
+        <v>14.66120294338506</v>
+      </c>
+      <c r="P21">
+        <v>22.00298553195018</v>
+      </c>
+      <c r="Q21">
+        <v>0.005475207502390277</v>
+      </c>
+      <c r="R21">
+        <v>0.05795526907470864</v>
+      </c>
+      <c r="S21">
+        <v>0.03687864392932291</v>
+      </c>
+      <c r="T21">
+        <v>0.09917042148918867</v>
+      </c>
+      <c r="U21">
+        <v>0.03858630594939601</v>
+      </c>
+      <c r="V21">
+        <v>0.01204842794919281</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>0.001664700000020503</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>0.02963422451853682</v>
+      </c>
+      <c r="F22">
+        <v>9.908418068404192</v>
+      </c>
+      <c r="G22">
+        <v>105.845225472403</v>
+      </c>
+      <c r="H22">
+        <v>13.59613812332146</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="N22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="O22">
+        <v>80.45351160497627</v>
+      </c>
+      <c r="P22">
+        <v>17.10792755345262</v>
+      </c>
+      <c r="Q22">
+        <v>0.005806280578154589</v>
+      </c>
+      <c r="R22">
+        <v>0.1057024430035575</v>
+      </c>
+      <c r="S22">
+        <v>0.181971819479726</v>
+      </c>
+      <c r="T22">
+        <v>0.06304682943273827</v>
+      </c>
+      <c r="U22">
+        <v>0.03773032423880987</v>
+      </c>
+      <c r="V22">
+        <v>0.05529354617662932</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <v>0.004208699999992405</v>
+      </c>
+      <c r="Y22">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>359.9697671719634</v>
+      </c>
+      <c r="F23">
+        <v>10.05421433088115</v>
+      </c>
+      <c r="G23">
+        <v>9.00292685184986</v>
+      </c>
+      <c r="H23">
+        <v>6.564300285922387</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="N23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="O23">
+        <v>8.95414409068502</v>
+      </c>
+      <c r="P23">
+        <v>15.4057128887567</v>
+      </c>
+      <c r="Q23">
+        <v>0.004472006982137371</v>
+      </c>
+      <c r="R23">
+        <v>0.05586762177704856</v>
+      </c>
+      <c r="S23">
+        <v>0.01821210837391529</v>
+      </c>
+      <c r="T23">
+        <v>0.09144032937779525</v>
+      </c>
+      <c r="U23">
+        <v>0.04052216414413315</v>
+      </c>
+      <c r="V23">
+        <v>0.07759044150386683</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>0.001514200000002575</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.006967987808114854</v>
+      </c>
+      <c r="F24">
+        <v>10.07265182013776</v>
+      </c>
+      <c r="G24">
+        <v>37.76970934784342</v>
+      </c>
+      <c r="H24">
+        <v>8.761007416318051</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="N24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="O24">
+        <v>25.76746328072486</v>
+      </c>
+      <c r="P24">
+        <v>17.50761542017423</v>
+      </c>
+      <c r="Q24">
+        <v>0.005381377193451616</v>
+      </c>
+      <c r="R24">
+        <v>0.04427331637894021</v>
+      </c>
+      <c r="S24">
+        <v>0.04370877543852959</v>
+      </c>
+      <c r="T24">
+        <v>0.05568216016018066</v>
+      </c>
+      <c r="U24">
+        <v>0.04410338962716671</v>
+      </c>
+      <c r="V24">
+        <v>0.02238431848965023</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>0.001702499999993279</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.9938032818055</v>
+      </c>
+      <c r="F25">
+        <v>9.964074188449379</v>
+      </c>
+      <c r="G25">
+        <v>93.12022854482092</v>
+      </c>
+      <c r="H25">
+        <v>14.30340292619064</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="N25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="O25">
+        <v>70.69422428570225</v>
+      </c>
+      <c r="P25">
+        <v>19.39885832808374</v>
+      </c>
+      <c r="Q25">
+        <v>0.005904568617081726</v>
+      </c>
+      <c r="R25">
+        <v>0.09379359104816337</v>
+      </c>
+      <c r="S25">
+        <v>0.1744348901350255</v>
+      </c>
+      <c r="T25">
+        <v>0.02723498830997435</v>
+      </c>
+      <c r="U25">
+        <v>0.03664286686889642</v>
+      </c>
+      <c r="V25">
+        <v>0.02328511453611078</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>0.006474200000013752</v>
+      </c>
+      <c r="Y25">
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.9893790378359</v>
+      </c>
+      <c r="F26">
+        <v>9.994033439123248</v>
+      </c>
+      <c r="G26">
+        <v>172.7895699335814</v>
+      </c>
+      <c r="H26">
+        <v>11.38832229903212</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="N26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="O26">
+        <v>154.9849465504293</v>
+      </c>
+      <c r="P26">
+        <v>6.819980056327758</v>
+      </c>
+      <c r="Q26">
+        <v>0.002046339231920169</v>
+      </c>
+      <c r="R26">
+        <v>0.02188901647110301</v>
+      </c>
+      <c r="S26">
+        <v>0.008142412070963419</v>
+      </c>
+      <c r="T26">
+        <v>0.03017980085392003</v>
+      </c>
+      <c r="U26">
+        <v>0.03895035392515775</v>
+      </c>
+      <c r="V26">
+        <v>0.003994953703671455</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>0.004954600000019127</v>
+      </c>
+      <c r="Y26">
+        <v>26</v>
+      </c>
+      <c r="Z26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>0.02270757081163254</v>
+      </c>
+      <c r="F27">
+        <v>9.976648973170715</v>
+      </c>
+      <c r="G27">
+        <v>156.6752897996666</v>
+      </c>
+      <c r="H27">
+        <v>9.951885304264549</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="N27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="O27">
+        <v>121.4204395890845</v>
+      </c>
+      <c r="P27">
+        <v>6.917142193896729</v>
+      </c>
+      <c r="Q27">
+        <v>0.002844252786373335</v>
+      </c>
+      <c r="R27">
+        <v>0.0549415313229073</v>
+      </c>
+      <c r="S27">
+        <v>0.03645909216703022</v>
+      </c>
+      <c r="T27">
+        <v>0.0651934717083149</v>
+      </c>
+      <c r="U27">
+        <v>0.04276082357156803</v>
+      </c>
+      <c r="V27">
+        <v>0.02121461053959232</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>0.005791999999985364</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>0.01282160613569316</v>
+      </c>
+      <c r="F28">
+        <v>10.02259946023604</v>
+      </c>
+      <c r="G28">
+        <v>55.54725210250924</v>
+      </c>
+      <c r="H28">
+        <v>9.224824862373316</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="N28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="O28">
+        <v>37.00175798249183</v>
+      </c>
+      <c r="P28">
+        <v>17.11547355251011</v>
+      </c>
+      <c r="Q28">
+        <v>0.005445687016329494</v>
+      </c>
+      <c r="R28">
+        <v>0.04722354464470543</v>
+      </c>
+      <c r="S28">
+        <v>0.05972200763138522</v>
+      </c>
+      <c r="T28">
+        <v>0.0396079954517588</v>
+      </c>
+      <c r="U28">
+        <v>0.03840349936033666</v>
+      </c>
+      <c r="V28">
+        <v>0.01127293640809634</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.001833600000026081</v>
+      </c>
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.9606014997402</v>
+      </c>
+      <c r="F29">
+        <v>9.997893404858798</v>
+      </c>
+      <c r="G29">
+        <v>76.62183990179877</v>
+      </c>
+      <c r="H29">
+        <v>12.79727312389785</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="N29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="O29">
+        <v>55.82255418946862</v>
+      </c>
+      <c r="P29">
+        <v>19.46519352038464</v>
+      </c>
+      <c r="Q29">
+        <v>0.005768895441376153</v>
+      </c>
+      <c r="R29">
+        <v>0.06936881942992605</v>
+      </c>
+      <c r="S29">
+        <v>0.1186615667679334</v>
+      </c>
+      <c r="T29">
+        <v>0.02247354973700511</v>
+      </c>
+      <c r="U29">
+        <v>0.04141001564982655</v>
+      </c>
+      <c r="V29">
+        <v>0.01012865976162714</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>0.002481700000004139</v>
+      </c>
+      <c r="Y29">
+        <v>13</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.9880406366943</v>
+      </c>
+      <c r="F30">
+        <v>10.03423467225208</v>
+      </c>
+      <c r="G30">
+        <v>131.2005609527098</v>
+      </c>
+      <c r="H30">
+        <v>9.786591195555642</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="N30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="O30">
+        <v>91.81943745204728</v>
+      </c>
+      <c r="P30">
+        <v>10.00962290558309</v>
+      </c>
+      <c r="Q30">
+        <v>0.005463538089221697</v>
+      </c>
+      <c r="R30">
+        <v>0.1000676335683606</v>
+      </c>
+      <c r="S30">
+        <v>0.1101023897428902</v>
+      </c>
+      <c r="T30">
+        <v>0.08826937073284288</v>
+      </c>
+      <c r="U30">
+        <v>0.03832543939390974</v>
+      </c>
+      <c r="V30">
+        <v>0.02434369182034856</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>0.004334500000027219</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>359.9745418381056</v>
+      </c>
+      <c r="F31">
+        <v>10.07632138329623</v>
+      </c>
+      <c r="G31">
+        <v>155.2607869475583</v>
+      </c>
+      <c r="H31">
+        <v>6.495118479985475</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="N31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="O31">
+        <v>85.0800170009738</v>
+      </c>
+      <c r="P31">
+        <v>4.444112401011973</v>
+      </c>
+      <c r="Q31">
+        <v>0.005208397305177749</v>
+      </c>
+      <c r="R31">
+        <v>0.06198771512843782</v>
+      </c>
+      <c r="S31">
+        <v>0.04435156217009444</v>
+      </c>
+      <c r="T31">
+        <v>0.0486656720226561</v>
+      </c>
+      <c r="U31">
+        <v>0.04023118028390697</v>
+      </c>
+      <c r="V31">
+        <v>0.0585384814883953</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31">
+        <v>0.004234499999995478</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.01452121473713469</v>
+      </c>
+      <c r="F32">
+        <v>9.958758601148739</v>
+      </c>
+      <c r="G32">
+        <v>115.93514097624</v>
+      </c>
+      <c r="H32">
+        <v>7.521057860774308</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="N32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="O32">
+        <v>69.92307477021221</v>
+      </c>
+      <c r="P32">
+        <v>9.890319250875661</v>
+      </c>
+      <c r="Q32">
+        <v>0.005079132077218522</v>
+      </c>
+      <c r="R32">
+        <v>0.05759730040024823</v>
+      </c>
+      <c r="S32">
+        <v>0.06662087474334248</v>
+      </c>
+      <c r="T32">
+        <v>0.0290868004827154</v>
+      </c>
+      <c r="U32">
+        <v>0.03981744976111323</v>
+      </c>
+      <c r="V32">
+        <v>0.02881842492647467</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>0.004279700000012099</v>
+      </c>
+      <c r="Y32">
+        <v>21</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.03245613162771561</v>
+      </c>
+      <c r="F33">
+        <v>9.957164929738397</v>
+      </c>
+      <c r="G33">
+        <v>51.37645117107549</v>
+      </c>
+      <c r="H33">
+        <v>14.44860394384086</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>90</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="N33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="O33">
+        <v>39.02566280981917</v>
+      </c>
+      <c r="P33">
+        <v>23.38040629149697</v>
+      </c>
+      <c r="Q33">
+        <v>0.005929330839900623</v>
+      </c>
+      <c r="R33">
+        <v>0.06224692540732476</v>
+      </c>
+      <c r="S33">
+        <v>0.09843067388942771</v>
+      </c>
+      <c r="T33">
+        <v>0.06354085539221223</v>
+      </c>
+      <c r="U33">
+        <v>0.04104185016200665</v>
+      </c>
+      <c r="V33">
+        <v>0.0258471847896647</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>0.001830800000021782</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>359.9529152495617</v>
+      </c>
+      <c r="F34">
+        <v>10.06902137242208</v>
+      </c>
+      <c r="G34">
+        <v>154.4131227180868</v>
+      </c>
+      <c r="H34">
+        <v>7.553897649452277</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="N34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="O34">
+        <v>98.10546878316467</v>
+      </c>
+      <c r="P34">
+        <v>5.128255228319599</v>
+      </c>
+      <c r="Q34">
+        <v>0.005406307278664637</v>
+      </c>
+      <c r="R34">
+        <v>0.08960761846556828</v>
+      </c>
+      <c r="S34">
+        <v>0.06203147135320466</v>
+      </c>
+      <c r="T34">
+        <v>0.08249592808491708</v>
+      </c>
+      <c r="U34">
+        <v>0.04035678305460304</v>
+      </c>
+      <c r="V34">
+        <v>0.05780860052482063</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <v>0.006516599999997652</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.06211713676070459</v>
+      </c>
+      <c r="F35">
+        <v>9.997373979464795</v>
+      </c>
+      <c r="G35">
+        <v>44.86536678771431</v>
+      </c>
+      <c r="H35">
+        <v>8.289299944364107</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="N35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="O35">
+        <v>29.60113145513128</v>
+      </c>
+      <c r="P35">
+        <v>16.5974286806815</v>
+      </c>
+      <c r="Q35">
+        <v>0.005313117362881962</v>
+      </c>
+      <c r="R35">
+        <v>0.0428150886276371</v>
+      </c>
+      <c r="S35">
+        <v>0.04608916780091895</v>
+      </c>
+      <c r="T35">
+        <v>0.04698814563636072</v>
+      </c>
+      <c r="U35">
+        <v>0.03842755341753625</v>
+      </c>
+      <c r="V35">
+        <v>0.05051128338918426</v>
+      </c>
+      <c r="W35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>0.001930099999981394</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="Z35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.995866851462</v>
+      </c>
+      <c r="F36">
+        <v>10.06086803962315</v>
+      </c>
+      <c r="G36">
+        <v>7.017443496875438</v>
+      </c>
+      <c r="H36">
+        <v>12.26489616385978</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="N36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="O36">
+        <v>7.664960861533552</v>
+      </c>
+      <c r="P36">
+        <v>22.25094258010137</v>
+      </c>
+      <c r="Q36">
+        <v>0.005074369688830639</v>
+      </c>
+      <c r="R36">
+        <v>0.08006342764770595</v>
+      </c>
+      <c r="S36">
+        <v>0.02468925655300172</v>
+      </c>
+      <c r="T36">
+        <v>0.1388953876324873</v>
+      </c>
+      <c r="U36">
+        <v>0.03821064963388249</v>
+      </c>
+      <c r="V36">
+        <v>0.03335802756547472</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>0.001771999999988338</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>359.9845028927493</v>
+      </c>
+      <c r="F37">
+        <v>10.02296547028495</v>
+      </c>
+      <c r="G37">
+        <v>82.58960028378364</v>
+      </c>
+      <c r="H37">
+        <v>6.722073075585495</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="N37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="O37">
+        <v>47.34036756537001</v>
+      </c>
+      <c r="P37">
+        <v>12.46526358279782</v>
+      </c>
+      <c r="Q37">
+        <v>0.005098442854791167</v>
+      </c>
+      <c r="R37">
+        <v>0.04277666411337419</v>
+      </c>
+      <c r="S37">
+        <v>0.05197362116793103</v>
+      </c>
+      <c r="T37">
+        <v>0.01810829915311599</v>
+      </c>
+      <c r="U37">
+        <v>0.04173728279338672</v>
+      </c>
+      <c r="V37">
+        <v>0.02916604592841737</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <v>0.002404200000000856</v>
+      </c>
+      <c r="Y37">
+        <v>12</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>0.04694930508460027</v>
+      </c>
+      <c r="F38">
+        <v>9.809293084875693</v>
+      </c>
+      <c r="G38">
+        <v>131.1986507160664</v>
+      </c>
+      <c r="H38">
+        <v>9.943206335295113</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>90</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="N38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="O38">
+        <v>93.75314219692883</v>
+      </c>
+      <c r="P38">
+        <v>10.17820603999258</v>
+      </c>
+      <c r="Q38">
+        <v>0.005187353141757047</v>
+      </c>
+      <c r="R38">
+        <v>0.0989425902366203</v>
+      </c>
+      <c r="S38">
+        <v>0.111588803674637</v>
+      </c>
+      <c r="T38">
+        <v>0.09075523591873881</v>
+      </c>
+      <c r="U38">
+        <v>0.04404114623002803</v>
+      </c>
+      <c r="V38">
+        <v>0.109775817427538</v>
+      </c>
+      <c r="W38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38">
+        <v>0.004733499999986179</v>
+      </c>
+      <c r="Y38">
+        <v>26</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.008882252367771055</v>
+      </c>
+      <c r="F39">
+        <v>9.962138521953907</v>
+      </c>
+      <c r="G39">
+        <v>170.0696158624335</v>
+      </c>
+      <c r="H39">
+        <v>8.524500172525491</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>90</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="N39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="O39">
+        <v>132.9209305249792</v>
+      </c>
+      <c r="P39">
+        <v>4.009418422485385</v>
+      </c>
+      <c r="Q39">
+        <v>0.002253909597966697</v>
+      </c>
+      <c r="R39">
+        <v>0.03568109901864815</v>
+      </c>
+      <c r="S39">
+        <v>0.0141464937728416</v>
+      </c>
+      <c r="T39">
+        <v>0.04006331977523533</v>
+      </c>
+      <c r="U39">
+        <v>0.03877795178795339</v>
+      </c>
+      <c r="V39">
+        <v>0.03413936256890883</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>0.004630399999996371</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.9551486412303</v>
+      </c>
+      <c r="F40">
+        <v>10.04814049252073</v>
+      </c>
+      <c r="G40">
+        <v>69.32779406744875</v>
+      </c>
+      <c r="H40">
+        <v>13.39935207916549</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="N40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="O40">
+        <v>51.03360722827334</v>
+      </c>
+      <c r="P40">
+        <v>20.84404456393107</v>
+      </c>
+      <c r="Q40">
+        <v>0.005865496957532604</v>
+      </c>
+      <c r="R40">
+        <v>0.06780930054211243</v>
+      </c>
+      <c r="S40">
+        <v>0.1160711157075706</v>
+      </c>
+      <c r="T40">
+        <v>0.03415724572389175</v>
+      </c>
+      <c r="U40">
+        <v>0.04249534128848604</v>
+      </c>
+      <c r="V40">
+        <v>0.03116681290112567</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40">
+        <v>0.002314500000011321</v>
+      </c>
+      <c r="Y40">
+        <v>12</v>
+      </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.9919015415111</v>
+      </c>
+      <c r="F41">
+        <v>10.00014239203941</v>
+      </c>
+      <c r="G41">
+        <v>98.43068222281239</v>
+      </c>
+      <c r="H41">
+        <v>12.58234012059141</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="N41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="O41">
+        <v>72.20176976747575</v>
+      </c>
+      <c r="P41">
+        <v>16.91422507615597</v>
+      </c>
+      <c r="Q41">
+        <v>0.005755140723870722</v>
+      </c>
+      <c r="R41">
+        <v>0.08818610875892602</v>
+      </c>
+      <c r="S41">
+        <v>0.1473982427088754</v>
+      </c>
+      <c r="T41">
+        <v>0.03420845610189748</v>
+      </c>
+      <c r="U41">
+        <v>0.04183527709122543</v>
+      </c>
+      <c r="V41">
+        <v>0.003553928163643289</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>0.004345000000000709</v>
+      </c>
+      <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>359.9901845056405</v>
+      </c>
+      <c r="F42">
+        <v>10.01751312998165</v>
+      </c>
+      <c r="G42">
+        <v>73.05200992909865</v>
+      </c>
+      <c r="H42">
+        <v>3.699855929917603</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="N42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="O42">
+        <v>31.91589627090701</v>
+      </c>
+      <c r="P42">
+        <v>10.24401404101698</v>
+      </c>
+      <c r="Q42">
+        <v>0.004676318585785915</v>
+      </c>
+      <c r="R42">
+        <v>0.02983197833058114</v>
+      </c>
+      <c r="S42">
+        <v>0.02829616396415055</v>
+      </c>
+      <c r="T42">
+        <v>0.02714915237004787</v>
+      </c>
+      <c r="U42">
+        <v>0.03874758842202037</v>
+      </c>
+      <c r="V42">
+        <v>0.04535866644773871</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>0.001635700000008455</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.05149384283275153</v>
+      </c>
+      <c r="F43">
+        <v>9.99090599055285</v>
+      </c>
+      <c r="G43">
+        <v>45.52954709668487</v>
+      </c>
+      <c r="H43">
+        <v>3.467160981947774</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="N43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="O43">
+        <v>21.95868626800711</v>
+      </c>
+      <c r="P43">
+        <v>11.09403816385187</v>
+      </c>
+      <c r="Q43">
+        <v>0.004567458044745737</v>
+      </c>
+      <c r="R43">
+        <v>0.03081156580319624</v>
+      </c>
+      <c r="S43">
+        <v>0.02287221405772033</v>
+      </c>
+      <c r="T43">
+        <v>0.04081850397780533</v>
+      </c>
+      <c r="U43">
+        <v>0.04005413952303608</v>
+      </c>
+      <c r="V43">
+        <v>0.0920377329990551</v>
+      </c>
+      <c r="W43" t="s">
+        <v>26</v>
+      </c>
+      <c r="X43">
+        <v>0.001598000000001321</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>0.04512093418379456</v>
+      </c>
+      <c r="F44">
+        <v>10.02197379678786</v>
+      </c>
+      <c r="G44">
+        <v>67.52536148310227</v>
+      </c>
+      <c r="H44">
+        <v>14.37572633235995</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="N44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="O44">
+        <v>50.72317429271431</v>
+      </c>
+      <c r="P44">
+        <v>22.11481142401705</v>
+      </c>
+      <c r="Q44">
+        <v>0.005904898907647727</v>
+      </c>
+      <c r="R44">
+        <v>0.07062466892454668</v>
+      </c>
+      <c r="S44">
+        <v>0.1259243538321025</v>
+      </c>
+      <c r="T44">
+        <v>0.0397553994241269</v>
+      </c>
+      <c r="U44">
+        <v>0.0375076736174906</v>
+      </c>
+      <c r="V44">
+        <v>0.01551869967717096</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44">
+        <v>0.00310300000001007</v>
+      </c>
+      <c r="Y44">
+        <v>12</v>
+      </c>
+      <c r="Z44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.984602442275</v>
+      </c>
+      <c r="F45">
+        <v>9.955087620988282</v>
+      </c>
+      <c r="G45">
+        <v>20.60488085668194</v>
+      </c>
+      <c r="H45">
+        <v>10.34917952098905</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="N45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="O45">
+        <v>16.28063072268242</v>
+      </c>
+      <c r="P45">
+        <v>19.75548284647619</v>
+      </c>
+      <c r="Q45">
+        <v>0.0053200885289251</v>
+      </c>
+      <c r="R45">
+        <v>0.05123610685147883</v>
+      </c>
+      <c r="S45">
+        <v>0.03489143549657832</v>
+      </c>
+      <c r="T45">
+        <v>0.08356176101698912</v>
+      </c>
+      <c r="U45">
+        <v>0.03912400125528043</v>
+      </c>
+      <c r="V45">
+        <v>0.01940413426915377</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <v>0.002164200000009942</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.009098335748418205</v>
+      </c>
+      <c r="F46">
+        <v>10.04566983480189</v>
+      </c>
+      <c r="G46">
+        <v>150.260959399973</v>
+      </c>
+      <c r="H46">
+        <v>4.289294998924659</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="N46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="O46">
+        <v>51.52986914914226</v>
+      </c>
+      <c r="P46">
+        <v>4.758132977426464</v>
+      </c>
+      <c r="Q46">
+        <v>0.004248310618025303</v>
+      </c>
+      <c r="R46">
+        <v>0.02512102316317033</v>
+      </c>
+      <c r="S46">
+        <v>0.02224895129866196</v>
+      </c>
+      <c r="T46">
+        <v>0.01217346301554753</v>
+      </c>
+      <c r="U46">
+        <v>0.03992230026037463</v>
+      </c>
+      <c r="V46">
+        <v>0.03680705020415134</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>0.01757040000001098</v>
+      </c>
+      <c r="Y46">
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9926229579555</v>
+      </c>
+      <c r="F47">
+        <v>9.995900081142844</v>
+      </c>
+      <c r="G47">
+        <v>178.0189307756666</v>
+      </c>
+      <c r="H47">
+        <v>9.590975119885476</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="N47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="O47">
+        <v>159.1885382263056</v>
+      </c>
+      <c r="P47">
+        <v>4.410519661963107</v>
+      </c>
+      <c r="Q47">
+        <v>0.001958803794246873</v>
+      </c>
+      <c r="R47">
+        <v>0.01946951646474559</v>
+      </c>
+      <c r="S47">
+        <v>0.00485104555332515</v>
+      </c>
+      <c r="T47">
+        <v>0.02381598483895964</v>
+      </c>
+      <c r="U47">
+        <v>0.03776827275013737</v>
+      </c>
+      <c r="V47">
+        <v>0.003399832450445793</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>0.0107825000000048</v>
+      </c>
+      <c r="Y47">
+        <v>27</v>
+      </c>
+      <c r="Z47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>0.02114116101117275</v>
+      </c>
+      <c r="F48">
+        <v>9.925268334548841</v>
+      </c>
+      <c r="G48">
+        <v>141.1475834316025</v>
+      </c>
+      <c r="H48">
+        <v>10.50544631031258</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="N48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="O48">
+        <v>105.4404794078486</v>
+      </c>
+      <c r="P48">
+        <v>9.422485019805661</v>
+      </c>
+      <c r="Q48">
+        <v>0.004199327879933085</v>
+      </c>
+      <c r="R48">
+        <v>0.08897239328659068</v>
+      </c>
+      <c r="S48">
+        <v>0.0873005823914718</v>
+      </c>
+      <c r="T48">
+        <v>0.09671990056050339</v>
+      </c>
+      <c r="U48">
+        <v>0.04117794988697179</v>
+      </c>
+      <c r="V48">
+        <v>0.04837023359627542</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>0.00643600000000788</v>
+      </c>
+      <c r="Y48">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.01276362243104846</v>
+      </c>
+      <c r="F49">
+        <v>10.02546888037222</v>
+      </c>
+      <c r="G49">
+        <v>20.44491507938319</v>
+      </c>
+      <c r="H49">
+        <v>14.65533376532987</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="N49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="O49">
+        <v>17.02747717369131</v>
+      </c>
+      <c r="P49">
+        <v>24.98284939089516</v>
+      </c>
+      <c r="Q49">
+        <v>0.005836999931686461</v>
+      </c>
+      <c r="R49">
+        <v>0.06202644609151595</v>
+      </c>
+      <c r="S49">
+        <v>0.0489021960427392</v>
+      </c>
+      <c r="T49">
+        <v>0.1077874008121705</v>
+      </c>
+      <c r="U49">
+        <v>0.03982958114385391</v>
+      </c>
+      <c r="V49">
+        <v>0.01002915775787994</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>0.00176520000002256</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>359.9977447702747</v>
+      </c>
+      <c r="F50">
+        <v>9.909841852914409</v>
+      </c>
+      <c r="G50">
+        <v>3.090280632015704</v>
+      </c>
+      <c r="H50">
+        <v>13.74298049739908</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>90</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="N50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="O50">
+        <v>4.952832419042786</v>
+      </c>
+      <c r="P50">
+        <v>23.8501281648624</v>
+      </c>
+      <c r="Q50">
+        <v>0.004792290707366437</v>
+      </c>
+      <c r="R50">
+        <v>0.1054823816262906</v>
+      </c>
+      <c r="S50">
+        <v>0.02112394831652608</v>
+      </c>
+      <c r="T50">
+        <v>0.1795297066361453</v>
+      </c>
+      <c r="U50">
+        <v>0.04074550044729991</v>
+      </c>
+      <c r="V50">
+        <v>0.01867845025249867</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>0.001514800000023797</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>359.9907266720374</v>
+      </c>
+      <c r="F51">
+        <v>9.966395325724383</v>
+      </c>
+      <c r="G51">
+        <v>53.99280995197661</v>
+      </c>
+      <c r="H51">
+        <v>5.961917218017995</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="N51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="O51">
+        <v>31.04641726575361</v>
+      </c>
+      <c r="P51">
+        <v>13.48812902573052</v>
+      </c>
+      <c r="Q51">
+        <v>0.005013709421145693</v>
+      </c>
+      <c r="R51">
+        <v>0.03643359934013772</v>
+      </c>
+      <c r="S51">
+        <v>0.03733113872966992</v>
+      </c>
+      <c r="T51">
+        <v>0.03560870129335074</v>
+      </c>
+      <c r="U51">
+        <v>0.03642829337680507</v>
+      </c>
+      <c r="V51">
+        <v>0.01517945069241978</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>0.002273199999990538</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>359.9920186408162</v>
+      </c>
+      <c r="F52">
+        <v>10.00617837762393</v>
+      </c>
+      <c r="G52">
+        <v>88.95614763288106</v>
+      </c>
+      <c r="H52">
+        <v>5.75659378631127</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="N52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="O52">
+        <v>47.05761454387875</v>
+      </c>
+      <c r="P52">
+        <v>11.03196012177111</v>
+      </c>
+      <c r="Q52">
+        <v>0.004940977595902147</v>
+      </c>
+      <c r="R52">
+        <v>0.0388801348003479</v>
+      </c>
+      <c r="S52">
+        <v>0.044557303793733</v>
+      </c>
+      <c r="T52">
+        <v>0.01664901746038311</v>
+      </c>
+      <c r="U52">
+        <v>0.03920934530217954</v>
+      </c>
+      <c r="V52">
+        <v>0.01927766701350673</v>
+      </c>
+      <c r="W52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>0.002546800000004623</v>
+      </c>
+      <c r="Y52">
+        <v>12</v>
+      </c>
+      <c r="Z52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>6.728137498114532E-05</v>
+      </c>
+      <c r="F53">
+        <v>9.983472222519765</v>
+      </c>
+      <c r="G53">
+        <v>121.2457039993452</v>
+      </c>
+      <c r="H53">
+        <v>3.527443067505374</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>90</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="N53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="O53">
+        <v>42.80357546877044</v>
+      </c>
+      <c r="P53">
+        <v>7.048572564988563</v>
+      </c>
+      <c r="Q53">
+        <v>0.004405531052755189</v>
+      </c>
+      <c r="R53">
+        <v>0.02639891049463335</v>
+      </c>
+      <c r="S53">
+        <v>0.0254224490025894</v>
+      </c>
+      <c r="T53">
+        <v>0.01487400753548268</v>
+      </c>
+      <c r="U53">
+        <v>0.03892670092961275</v>
+      </c>
+      <c r="V53">
+        <v>0.02971092377612074</v>
+      </c>
+      <c r="W53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X53">
+        <v>0.002825099999995473</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+      <c r="Z53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.9666495782867</v>
+      </c>
+      <c r="F54">
+        <v>10.04546379634766</v>
+      </c>
+      <c r="G54">
+        <v>147.6457925693334</v>
+      </c>
+      <c r="H54">
+        <v>3.336216356735024</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>90</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="N54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="O54">
+        <v>39.25341738792223</v>
+      </c>
+      <c r="P54">
+        <v>5.226483913432647</v>
+      </c>
+      <c r="Q54">
+        <v>0.00409570461919273</v>
+      </c>
+      <c r="R54">
+        <v>0.02051742776466845</v>
+      </c>
+      <c r="S54">
+        <v>0.01840312198974463</v>
+      </c>
+      <c r="T54">
+        <v>0.01446712082969226</v>
+      </c>
+      <c r="U54">
+        <v>0.0369545441715944</v>
+      </c>
+      <c r="V54">
+        <v>0.05962017769711977</v>
+      </c>
+      <c r="W54" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <v>0.002803699999986975</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>0.0003980982354349741</v>
+      </c>
+      <c r="F55">
+        <v>9.936363229485341</v>
+      </c>
+      <c r="G55">
+        <v>152.4320118975239</v>
+      </c>
+      <c r="H55">
+        <v>9.651665633573344</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="N55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="O55">
+        <v>114.2875259085149</v>
+      </c>
+      <c r="P55">
+        <v>7.164819612437613</v>
+      </c>
+      <c r="Q55">
+        <v>0.003350469664299954</v>
+      </c>
+      <c r="R55">
+        <v>0.06923493881938887</v>
+      </c>
+      <c r="S55">
+        <v>0.05128425836213815</v>
+      </c>
+      <c r="T55">
+        <v>0.0782924226491242</v>
+      </c>
+      <c r="U55">
+        <v>0.04483459666853923</v>
+      </c>
+      <c r="V55">
+        <v>0.03919226872372276</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55">
+        <v>0.02499579999999924</v>
+      </c>
+      <c r="Y55">
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.04583906704634124</v>
+      </c>
+      <c r="F56">
+        <v>9.940371453568224</v>
+      </c>
+      <c r="G56">
+        <v>75.68534514311119</v>
+      </c>
+      <c r="H56">
+        <v>7.261886664767147</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="N56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="O56">
+        <v>45.43054892766636</v>
+      </c>
+      <c r="P56">
+        <v>13.5066123954736</v>
+      </c>
+      <c r="Q56">
+        <v>0.00513239151920594</v>
+      </c>
+      <c r="R56">
+        <v>0.04356893547190092</v>
+      </c>
+      <c r="S56">
+        <v>0.05459469490336528</v>
+      </c>
+      <c r="T56">
+        <v>0.02126224323858539</v>
+      </c>
+      <c r="U56">
+        <v>0.03932241558505432</v>
+      </c>
+      <c r="V56">
+        <v>0.05522847778666437</v>
+      </c>
+      <c r="W56" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56">
+        <v>0.002525899999994863</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>359.982434086023</v>
+      </c>
+      <c r="F57">
+        <v>10.01520437713853</v>
+      </c>
+      <c r="G57">
+        <v>16.80884246809279</v>
+      </c>
+      <c r="H57">
+        <v>14.71279009682003</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="N57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="O57">
+        <v>14.47475233129982</v>
+      </c>
+      <c r="P57">
+        <v>25.09647815749954</v>
+      </c>
+      <c r="Q57">
+        <v>0.005752276726276595</v>
+      </c>
+      <c r="R57">
+        <v>0.06516957339431721</v>
+      </c>
+      <c r="S57">
+        <v>0.0432714240880248</v>
+      </c>
+      <c r="T57">
+        <v>0.1161545761954984</v>
+      </c>
+      <c r="U57">
+        <v>0.03909652505456992</v>
+      </c>
+      <c r="V57">
+        <v>0.02164435067010918</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57">
+        <v>0.00167340000001559</v>
+      </c>
+      <c r="Y57">
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.004922622808568281</v>
+      </c>
+      <c r="F58">
+        <v>9.972343991761173</v>
+      </c>
+      <c r="G58">
+        <v>177.2298572272114</v>
+      </c>
+      <c r="H58">
+        <v>6.974131919921787</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="N58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="O58">
+        <v>122.4823291407444</v>
+      </c>
+      <c r="P58">
+        <v>1.868014183145525</v>
+      </c>
+      <c r="Q58">
+        <v>0.002150524678325754</v>
+      </c>
+      <c r="R58">
+        <v>0.02584290436239168</v>
+      </c>
+      <c r="S58">
+        <v>0.008261068211180793</v>
+      </c>
+      <c r="T58">
+        <v>0.0250355834389803</v>
+      </c>
+      <c r="U58">
+        <v>0.03828424514970725</v>
+      </c>
+      <c r="V58">
+        <v>0.04475842799180604</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58">
+        <v>0.005682100000001356</v>
+      </c>
+      <c r="Y58">
+        <v>25</v>
+      </c>
+      <c r="Z58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>359.9820308326339</v>
+      </c>
+      <c r="F59">
+        <v>9.929465239560342</v>
+      </c>
+      <c r="G59">
+        <v>15.54241370363752</v>
+      </c>
+      <c r="H59">
+        <v>5.884199019818414</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>90</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="N59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="O59">
+        <v>12.22862846951674</v>
+      </c>
+      <c r="P59">
+        <v>14.44365961293181</v>
+      </c>
+      <c r="Q59">
+        <v>0.004558087632401166</v>
+      </c>
+      <c r="R59">
+        <v>0.04526569564031058</v>
+      </c>
+      <c r="S59">
+        <v>0.02026157190181985</v>
+      </c>
+      <c r="T59">
+        <v>0.07313909918506607</v>
+      </c>
+      <c r="U59">
+        <v>0.04363551418317119</v>
+      </c>
+      <c r="V59">
+        <v>0.06606352557892192</v>
+      </c>
+      <c r="W59" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59">
+        <v>0.001608699999991359</v>
+      </c>
+      <c r="Y59">
+        <v>8</v>
+      </c>
+      <c r="Z59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.0003849039900672331</v>
+      </c>
+      <c r="F60">
+        <v>9.886890278133471</v>
+      </c>
+      <c r="G60">
+        <v>65.41834077715225</v>
+      </c>
+      <c r="H60">
+        <v>8.324657310972784</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>90</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="N60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="O60">
+        <v>41.9074949561312</v>
+      </c>
+      <c r="P60">
+        <v>15.35302712877671</v>
+      </c>
+      <c r="Q60">
+        <v>0.005267725812734155</v>
+      </c>
+      <c r="R60">
+        <v>0.04532601847667277</v>
+      </c>
+      <c r="S60">
+        <v>0.05872777031585118</v>
+      </c>
+      <c r="T60">
+        <v>0.02882222411548477</v>
+      </c>
+      <c r="U60">
+        <v>0.03761058635546684</v>
+      </c>
+      <c r="V60">
+        <v>0.06627772629154385</v>
+      </c>
+      <c r="W60" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <v>0.001771700000006149</v>
+      </c>
+      <c r="Y60">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.01958004731916496</v>
+      </c>
+      <c r="F61">
+        <v>9.968278136396499</v>
+      </c>
+      <c r="G61">
+        <v>166.5305706321301</v>
+      </c>
+      <c r="H61">
+        <v>4.873202260080406</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>90</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="N61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="O61">
+        <v>56.71428969949678</v>
+      </c>
+      <c r="P61">
+        <v>3.033669127725402</v>
+      </c>
+      <c r="Q61">
+        <v>0.004087796103959836</v>
+      </c>
+      <c r="R61">
+        <v>0.02302854829274299</v>
+      </c>
+      <c r="S61">
+        <v>0.01863981651906337</v>
+      </c>
+      <c r="T61">
+        <v>0.01198871583678111</v>
+      </c>
+      <c r="U61">
+        <v>0.04015942085008284</v>
+      </c>
+      <c r="V61">
+        <v>0.04237112272768927</v>
+      </c>
+      <c r="W61" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>0.003908199999983708</v>
+      </c>
+      <c r="Y61">
+        <v>20</v>
+      </c>
+      <c r="Z61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>359.97490942557</v>
+      </c>
+      <c r="F62">
+        <v>10.05069705906447</v>
+      </c>
+      <c r="G62">
+        <v>54.28598169778185</v>
+      </c>
+      <c r="H62">
+        <v>5.297882902398849</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>90</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="N62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="O62">
+        <v>29.58617808996605</v>
+      </c>
+      <c r="P62">
+        <v>12.81653179559428</v>
+      </c>
+      <c r="Q62">
+        <v>0.004954989107059478</v>
+      </c>
+      <c r="R62">
+        <v>0.03493851929458235</v>
+      </c>
+      <c r="S62">
+        <v>0.03390553933310849</v>
+      </c>
+      <c r="T62">
+        <v>0.03560982905419449</v>
+      </c>
+      <c r="U62">
+        <v>0.04285538119687356</v>
+      </c>
+      <c r="V62">
+        <v>0.05449961270019134</v>
+      </c>
+      <c r="W62" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62">
+        <v>0.001613700000007157</v>
+      </c>
+      <c r="Y62">
+        <v>8</v>
+      </c>
+      <c r="Z62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.01138963042874362</v>
+      </c>
+      <c r="F63">
+        <v>10.02683071049019</v>
+      </c>
+      <c r="G63">
+        <v>148.3819591233522</v>
+      </c>
+      <c r="H63">
+        <v>5.199111007418697</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="N63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="O63">
+        <v>64.72821823237881</v>
+      </c>
+      <c r="P63">
+        <v>4.913489188893282</v>
+      </c>
+      <c r="Q63">
+        <v>0.004524469825308244</v>
+      </c>
+      <c r="R63">
+        <v>0.03527786472671936</v>
+      </c>
+      <c r="S63">
+        <v>0.02986173727213335</v>
+      </c>
+      <c r="T63">
+        <v>0.01940592536622203</v>
+      </c>
+      <c r="U63">
+        <v>0.04124856482180343</v>
+      </c>
+      <c r="V63">
+        <v>0.02867924863736007</v>
+      </c>
+      <c r="W63" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63">
+        <v>0.005207399999989093</v>
+      </c>
+      <c r="Y63">
+        <v>21</v>
+      </c>
+      <c r="Z63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.01830903727688134</v>
+      </c>
+      <c r="F64">
+        <v>10.09107785034318</v>
+      </c>
+      <c r="G64">
+        <v>6.126417114649499</v>
+      </c>
+      <c r="H64">
+        <v>8.785377383002498</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>90</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="N64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="O64">
+        <v>7.295154537265419</v>
+      </c>
+      <c r="P64">
+        <v>18.1035026301255</v>
+      </c>
+      <c r="Q64">
+        <v>0.004638821332113048</v>
+      </c>
+      <c r="R64">
+        <v>0.07030228580819396</v>
+      </c>
+      <c r="S64">
+        <v>0.01932082333190702</v>
+      </c>
+      <c r="T64">
+        <v>0.1171533338839016</v>
+      </c>
+      <c r="U64">
+        <v>0.03575088842567735</v>
+      </c>
+      <c r="V64">
+        <v>0.02824688205600615</v>
+      </c>
+      <c r="W64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64">
+        <v>0.001562999999976</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>359.9875816180214</v>
+      </c>
+      <c r="F65">
+        <v>10.03695646096635</v>
+      </c>
+      <c r="G65">
+        <v>99.75661185991081</v>
+      </c>
+      <c r="H65">
+        <v>7.791644110249185</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>25</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="N65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="O65">
+        <v>60.6604037767604</v>
+      </c>
+      <c r="P65">
+        <v>11.91080745667791</v>
+      </c>
+      <c r="Q65">
+        <v>0.005178717256044379</v>
+      </c>
+      <c r="R65">
+        <v>0.05326855933034334</v>
+      </c>
+      <c r="S65">
+        <v>0.06751595827249227</v>
+      </c>
+      <c r="T65">
+        <v>0.01718744504115781</v>
+      </c>
+      <c r="U65">
+        <v>0.03837245161000827</v>
+      </c>
+      <c r="V65">
+        <v>0.01990745588261696</v>
+      </c>
+      <c r="W65" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65">
+        <v>0.003657599999996819</v>
+      </c>
+      <c r="Y65">
+        <v>18</v>
+      </c>
+      <c r="Z65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>0.05272269388549249</v>
+      </c>
+      <c r="F66">
+        <v>10.00635137093778</v>
+      </c>
+      <c r="G66">
+        <v>68.28951300210245</v>
+      </c>
+      <c r="H66">
+        <v>9.781518869274562</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>90</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="N66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="O66">
+        <v>45.84880184209141</v>
+      </c>
+      <c r="P66">
+        <v>16.84291368928758</v>
+      </c>
+      <c r="Q66">
+        <v>0.005459697560701253</v>
+      </c>
+      <c r="R66">
+        <v>0.05243798561146609</v>
+      </c>
+      <c r="S66">
+        <v>0.07415442422257928</v>
+      </c>
+      <c r="T66">
+        <v>0.02843071039744148</v>
+      </c>
+      <c r="U66">
+        <v>0.04319318167296126</v>
+      </c>
+      <c r="V66">
+        <v>0.009954770583972213</v>
+      </c>
+      <c r="W66" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66">
+        <v>0.001862200000005032</v>
+      </c>
+      <c r="Y66">
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.0271006131578979</v>
+      </c>
+      <c r="F67">
+        <v>9.992335628811187</v>
+      </c>
+      <c r="G67">
+        <v>39.212164568721</v>
+      </c>
+      <c r="H67">
+        <v>3.375200467292834</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>90</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="N67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="O67">
+        <v>19.56033661750249</v>
+      </c>
+      <c r="P67">
+        <v>11.15807899789989</v>
+      </c>
+      <c r="Q67">
+        <v>0.004502644911803481</v>
+      </c>
+      <c r="R67">
+        <v>0.03168107127258428</v>
+      </c>
+      <c r="S67">
+        <v>0.02119357981049215</v>
+      </c>
+      <c r="T67">
+        <v>0.04465059062760984</v>
+      </c>
+      <c r="U67">
+        <v>0.03968917287592114</v>
+      </c>
+      <c r="V67">
+        <v>0.009546103174174031</v>
+      </c>
+      <c r="W67" t="s">
+        <v>26</v>
+      </c>
+      <c r="X67">
+        <v>0.00159400000001142</v>
+      </c>
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.9830621806689</v>
+      </c>
+      <c r="F68">
+        <v>9.974783474155613</v>
+      </c>
+      <c r="G68">
+        <v>27.75929831746195</v>
+      </c>
+      <c r="H68">
+        <v>4.569747407320254</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+      <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="N68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="O68">
+        <v>16.94978731533673</v>
+      </c>
+      <c r="P68">
+        <v>12.76553715259807</v>
+      </c>
+      <c r="Q68">
+        <v>0.004601400974701237</v>
+      </c>
+      <c r="R68">
+        <v>0.03631153388294141</v>
+      </c>
+      <c r="S68">
+        <v>0.02202238384203753</v>
+      </c>
+      <c r="T68">
+        <v>0.05455774244659846</v>
+      </c>
+      <c r="U68">
+        <v>0.03925294059471652</v>
+      </c>
+      <c r="V68">
+        <v>0.03260883722667456</v>
+      </c>
+      <c r="W68" t="s">
+        <v>26</v>
+      </c>
+      <c r="X68">
+        <v>0.001624300000003132</v>
+      </c>
+      <c r="Y68">
+        <v>8</v>
+      </c>
+      <c r="Z68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>0.05478771748725386</v>
+      </c>
+      <c r="F69">
+        <v>9.901947409986196</v>
+      </c>
+      <c r="G69">
+        <v>98.19311564426921</v>
+      </c>
+      <c r="H69">
+        <v>13.12333472049496</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="N69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="O69">
+        <v>73.26572701662924</v>
+      </c>
+      <c r="P69">
+        <v>17.50867499513438</v>
+      </c>
+      <c r="Q69">
+        <v>0.005713957292092432</v>
+      </c>
+      <c r="R69">
+        <v>0.09156222625236946</v>
+      </c>
+      <c r="S69">
+        <v>0.1590583128164319</v>
+      </c>
+      <c r="T69">
+        <v>0.0363774178574383</v>
+      </c>
+      <c r="U69">
+        <v>0.03904415268163077</v>
+      </c>
+      <c r="V69">
+        <v>0.06470412701017215</v>
+      </c>
+      <c r="W69" t="s">
+        <v>26</v>
+      </c>
+      <c r="X69">
+        <v>0.003664899999989757</v>
+      </c>
+      <c r="Y69">
+        <v>19</v>
+      </c>
+      <c r="Z69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>359.9827693987241</v>
+      </c>
+      <c r="F70">
+        <v>9.987935554974031</v>
+      </c>
+      <c r="G70">
+        <v>46.71851098667121</v>
+      </c>
+      <c r="H70">
+        <v>3.508855858102027</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>90</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="N70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="O70">
+        <v>22.42192741453963</v>
+      </c>
+      <c r="P70">
+        <v>11.09725910335366</v>
+      </c>
+      <c r="Q70">
+        <v>0.004574416538957855</v>
+      </c>
+      <c r="R70">
+        <v>0.03069278844292029</v>
+      </c>
+      <c r="S70">
+        <v>0.02322713893357401</v>
+      </c>
+      <c r="T70">
+        <v>0.04007236369144929</v>
+      </c>
+      <c r="U70">
+        <v>0.04025443957925731</v>
+      </c>
+      <c r="V70">
+        <v>0.01501682794092946</v>
+      </c>
+      <c r="W70" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70">
+        <v>0.001608900000007907</v>
+      </c>
+      <c r="Y70">
+        <v>8</v>
+      </c>
+      <c r="Z70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>0.04420153192207738</v>
+      </c>
+      <c r="F71">
+        <v>9.87589301173093</v>
+      </c>
+      <c r="G71">
+        <v>53.17461895592881</v>
+      </c>
+      <c r="H71">
+        <v>12.50302567580241</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>90</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="N71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="O71">
+        <v>39.05755267316786</v>
+      </c>
+      <c r="P71">
+        <v>20.9299375894138</v>
+      </c>
+      <c r="Q71">
+        <v>0.005704165768941456</v>
+      </c>
+      <c r="R71">
+        <v>0.05615934116499863</v>
+      </c>
+      <c r="S71">
+        <v>0.08337755283258122</v>
+      </c>
+      <c r="T71">
+        <v>0.05192191828049476</v>
+      </c>
+      <c r="U71">
+        <v>0.04182130365985497</v>
+      </c>
+      <c r="V71">
+        <v>0.07946155873182911</v>
+      </c>
+      <c r="W71" t="s">
+        <v>26</v>
+      </c>
+      <c r="X71">
+        <v>0.002625800000004119</v>
+      </c>
+      <c r="Y71">
+        <v>9</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.9948667462737</v>
+      </c>
+      <c r="F72">
+        <v>10.01413348158609</v>
+      </c>
+      <c r="G72">
+        <v>166.9228470964896</v>
+      </c>
+      <c r="H72">
+        <v>13.49383600101958</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>90</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="N72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="O72">
+        <v>150.0097853577107</v>
+      </c>
+      <c r="P72">
+        <v>9.669545473190668</v>
+      </c>
+      <c r="Q72">
+        <v>0.002212359147918382</v>
+      </c>
+      <c r="R72">
+        <v>0.02492898015570393</v>
+      </c>
+      <c r="S72">
+        <v>0.01392711906400012</v>
+      </c>
+      <c r="T72">
+        <v>0.03887290402541274</v>
+      </c>
+      <c r="U72">
+        <v>0.04049869507760213</v>
+      </c>
+      <c r="V72">
+        <v>0.01422022399477288</v>
+      </c>
+      <c r="W72" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72">
+        <v>0.004681000000005042</v>
+      </c>
+      <c r="Y72">
+        <v>26</v>
+      </c>
+      <c r="Z72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.01314143737827915</v>
+      </c>
+      <c r="F73">
+        <v>10.03120925273487</v>
+      </c>
+      <c r="G73">
+        <v>33.53580653195764</v>
+      </c>
+      <c r="H73">
+        <v>7.594210584313931</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73">
+        <v>90</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="N73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="O73">
+        <v>22.46609588420898</v>
+      </c>
+      <c r="P73">
+        <v>16.24375348226038</v>
+      </c>
+      <c r="Q73">
+        <v>0.005179637955781227</v>
+      </c>
+      <c r="R73">
+        <v>0.04142497698120293</v>
+      </c>
+      <c r="S73">
+        <v>0.03548855363124814</v>
+      </c>
+      <c r="T73">
+        <v>0.05632297045349754</v>
+      </c>
+      <c r="U73">
+        <v>0.03916773052293403</v>
+      </c>
+      <c r="V73">
+        <v>0.02135745142633891</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73">
+        <v>0.001619099999999207</v>
+      </c>
+      <c r="Y73">
+        <v>8</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9851006897724</v>
+      </c>
+      <c r="F74">
+        <v>9.984309239115799</v>
+      </c>
+      <c r="G74">
+        <v>19.19092133810785</v>
+      </c>
+      <c r="H74">
+        <v>11.26384070100001</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="N74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="O74">
+        <v>15.57266192551758</v>
+      </c>
+      <c r="P74">
+        <v>20.90066389749136</v>
+      </c>
+      <c r="Q74">
+        <v>0.00541378644802356</v>
+      </c>
+      <c r="R74">
+        <v>0.05451785343431279</v>
+      </c>
+      <c r="S74">
+        <v>0.03621359241029853</v>
+      </c>
+      <c r="T74">
+        <v>0.09098051726038855</v>
+      </c>
+      <c r="U74">
+        <v>0.04037000181716551</v>
+      </c>
+      <c r="V74">
+        <v>0.01612874949542553</v>
+      </c>
+      <c r="W74" t="s">
+        <v>26</v>
+      </c>
+      <c r="X74">
+        <v>0.002535699999981489</v>
+      </c>
+      <c r="Y74">
+        <v>8</v>
+      </c>
+      <c r="Z74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.9760041659771</v>
+      </c>
+      <c r="F75">
+        <v>10.1097696672493</v>
+      </c>
+      <c r="G75">
+        <v>115.7027883778144</v>
+      </c>
+      <c r="H75">
+        <v>9.618264976091805</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>25</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="N75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="O75">
+        <v>77.86174549369974</v>
+      </c>
+      <c r="P75">
+        <v>11.83063023971672</v>
+      </c>
+      <c r="Q75">
+        <v>0.005513590161426202</v>
+      </c>
+      <c r="R75">
+        <v>0.08062874600653322</v>
+      </c>
+      <c r="S75">
+        <v>0.1029180671713263</v>
+      </c>
+      <c r="T75">
+        <v>0.04962431147735878</v>
+      </c>
+      <c r="U75">
+        <v>0.0364195942910916</v>
+      </c>
+      <c r="V75">
+        <v>0.07535463912616368</v>
+      </c>
+      <c r="W75" t="s">
+        <v>26</v>
+      </c>
+      <c r="X75">
+        <v>0.00538759999997751</v>
+      </c>
+      <c r="Y75">
+        <v>22</v>
+      </c>
+      <c r="Z75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.9814145843119</v>
+      </c>
+      <c r="F76">
+        <v>9.996048207601637</v>
+      </c>
+      <c r="G76">
+        <v>36.40303149189893</v>
+      </c>
+      <c r="H76">
+        <v>12.39907803820709</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>90</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="N76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="O76">
+        <v>27.31712059922504</v>
+      </c>
+      <c r="P76">
+        <v>21.78455801817215</v>
+      </c>
+      <c r="Q76">
+        <v>0.005746433340853114</v>
+      </c>
+      <c r="R76">
+        <v>0.05317723825636465</v>
+      </c>
+      <c r="S76">
+        <v>0.06132225634356825</v>
+      </c>
+      <c r="T76">
+        <v>0.07138999250519497</v>
+      </c>
+      <c r="U76">
+        <v>0.03642428791227106</v>
+      </c>
+      <c r="V76">
+        <v>0.006604426715722826</v>
+      </c>
+      <c r="W76" t="s">
+        <v>26</v>
+      </c>
+      <c r="X76">
+        <v>0.002138800000011543</v>
+      </c>
+      <c r="Y76">
+        <v>9</v>
+      </c>
+      <c r="Z76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>359.9623101249128</v>
+      </c>
+      <c r="F77">
+        <v>10.05047565470626</v>
+      </c>
+      <c r="G77">
+        <v>102.3308426764783</v>
+      </c>
+      <c r="H77">
+        <v>3.838826277745837</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>25</v>
+      </c>
+      <c r="K77">
+        <v>90</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="N77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="O77">
+        <v>41.28695186232785</v>
+      </c>
+      <c r="P77">
+        <v>8.58427011803351</v>
+      </c>
+      <c r="Q77">
+        <v>0.004619830732177811</v>
+      </c>
+      <c r="R77">
+        <v>0.02975833348587471</v>
+      </c>
+      <c r="S77">
+        <v>0.02980975419145697</v>
+      </c>
+      <c r="T77">
+        <v>0.01726861278944186</v>
+      </c>
+      <c r="U77">
+        <v>0.03835508233335189</v>
+      </c>
+      <c r="V77">
+        <v>0.06014072728521174</v>
+      </c>
+      <c r="W77" t="s">
+        <v>26</v>
+      </c>
+      <c r="X77">
+        <v>0.002600999999998521</v>
+      </c>
+      <c r="Y77">
+        <v>11</v>
+      </c>
+      <c r="Z77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.983947500936</v>
+      </c>
+      <c r="F78">
+        <v>10.00635262480721</v>
+      </c>
+      <c r="G78">
+        <v>56.00674041049911</v>
+      </c>
+      <c r="H78">
+        <v>12.8382645054159</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>25</v>
+      </c>
+      <c r="K78">
+        <v>90</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="N78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="O78">
+        <v>41.05956138718128</v>
+      </c>
+      <c r="P78">
+        <v>21.22385962825998</v>
+      </c>
+      <c r="Q78">
+        <v>0.005810490985324071</v>
+      </c>
+      <c r="R78">
+        <v>0.05913153263809719</v>
+      </c>
+      <c r="S78">
+        <v>0.09054203017042865</v>
+      </c>
+      <c r="T78">
+        <v>0.05038643738566618</v>
+      </c>
+      <c r="U78">
+        <v>0.03814384156987594</v>
+      </c>
+      <c r="V78">
+        <v>0.01232397969689896</v>
+      </c>
+      <c r="W78" t="s">
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>0.002581800000001522</v>
+      </c>
+      <c r="Y78">
+        <v>9</v>
+      </c>
+      <c r="Z78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>0.004973970968429864</v>
+      </c>
+      <c r="F79">
+        <v>9.960599905157151</v>
+      </c>
+      <c r="G79">
+        <v>165.4637314907754</v>
+      </c>
+      <c r="H79">
+        <v>10.65271332984018</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79">
+        <v>90</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="N79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="O79">
+        <v>138.9515415002288</v>
+      </c>
+      <c r="P79">
+        <v>6.669473704865149</v>
+      </c>
+      <c r="Q79">
+        <v>0.002296732628305078</v>
+      </c>
+      <c r="R79">
+        <v>0.03226142466787636</v>
+      </c>
+      <c r="S79">
+        <v>0.01617598805139039</v>
+      </c>
+      <c r="T79">
+        <v>0.04193386692437136</v>
+      </c>
+      <c r="U79">
+        <v>0.03982831061076815</v>
+      </c>
+      <c r="V79">
+        <v>0.02336357115833545</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79">
+        <v>0.005764099999993277</v>
+      </c>
+      <c r="Y79">
+        <v>24</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9759281878137</v>
+      </c>
+      <c r="F80">
+        <v>10.08956243298889</v>
+      </c>
+      <c r="G80">
+        <v>8.823946640922903</v>
+      </c>
+      <c r="H80">
+        <v>11.14095259506311</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="N80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="O80">
+        <v>8.840457425025319</v>
+      </c>
+      <c r="P80">
+        <v>20.9327889904012</v>
+      </c>
+      <c r="Q80">
+        <v>0.005063714907942551</v>
+      </c>
+      <c r="R80">
+        <v>0.07083834643662229</v>
+      </c>
+      <c r="S80">
+        <v>0.02506797953584122</v>
+      </c>
+      <c r="T80">
+        <v>0.1222516851744487</v>
+      </c>
+      <c r="U80">
+        <v>0.04016492820523605</v>
+      </c>
+      <c r="V80">
+        <v>0.02669585067578442</v>
+      </c>
+      <c r="W80" t="s">
+        <v>26</v>
+      </c>
+      <c r="X80">
+        <v>0.004046999999985701</v>
+      </c>
+      <c r="Y80">
+        <v>7</v>
+      </c>
+      <c r="Z80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>359.9436884359299</v>
+      </c>
+      <c r="F81">
+        <v>10.01921467213738</v>
+      </c>
+      <c r="G81">
+        <v>89.95877394480142</v>
+      </c>
+      <c r="H81">
+        <v>8.682653695381667</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <v>90</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="N81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="O81">
+        <v>57.38328624504332</v>
+      </c>
+      <c r="P81">
+        <v>13.74789841145518</v>
+      </c>
+      <c r="Q81">
+        <v>0.005324343694519893</v>
+      </c>
+      <c r="R81">
+        <v>0.055012925706507</v>
+      </c>
+      <c r="S81">
+        <v>0.07520652214393102</v>
+      </c>
+      <c r="T81">
+        <v>0.01491069539148151</v>
+      </c>
+      <c r="U81">
+        <v>0.03777270967272687</v>
+      </c>
+      <c r="V81">
+        <v>0.03708371335936891</v>
+      </c>
+      <c r="W81" t="s">
+        <v>26</v>
+      </c>
+      <c r="X81">
+        <v>0.003778899999986152</v>
+      </c>
+      <c r="Y81">
+        <v>15</v>
+      </c>
+      <c r="Z81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.9842453097799</v>
+      </c>
+      <c r="F82">
+        <v>10.06122980058994</v>
+      </c>
+      <c r="G82">
+        <v>94.09328178782469</v>
+      </c>
+      <c r="H82">
+        <v>11.46293974399827</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>90</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="N82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="O82">
+        <v>66.53415824229198</v>
+      </c>
+      <c r="P82">
+        <v>16.23042137658249</v>
+      </c>
+      <c r="Q82">
+        <v>0.00564325293351723</v>
+      </c>
+      <c r="R82">
+        <v>0.07571062844332187</v>
+      </c>
+      <c r="S82">
+        <v>0.1199348878983674</v>
+      </c>
+      <c r="T82">
+        <v>0.02163489018993071</v>
+      </c>
+      <c r="U82">
+        <v>0.03816610073347348</v>
+      </c>
+      <c r="V82">
+        <v>0.03892387110096609</v>
+      </c>
+      <c r="W82" t="s">
+        <v>26</v>
+      </c>
+      <c r="X82">
+        <v>0.005505800000008776</v>
+      </c>
+      <c r="Y82">
+        <v>18</v>
+      </c>
+      <c r="Z82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.04608636406490531</v>
+      </c>
+      <c r="F83">
+        <v>10.06643460269891</v>
+      </c>
+      <c r="G83">
+        <v>64.33559680920636</v>
+      </c>
+      <c r="H83">
+        <v>7.088490682641934</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>25</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="N83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="O83">
+        <v>38.46567925750494</v>
+      </c>
+      <c r="P83">
+        <v>14.22013248578194</v>
+      </c>
+      <c r="Q83">
+        <v>0.005201399376020836</v>
+      </c>
+      <c r="R83">
+        <v>0.04169258390306537</v>
+      </c>
+      <c r="S83">
+        <v>0.04903649658725281</v>
+      </c>
+      <c r="T83">
+        <v>0.02955575784950574</v>
+      </c>
+      <c r="U83">
+        <v>0.04045747775996307</v>
+      </c>
+      <c r="V83">
+        <v>0.02580628387255973</v>
+      </c>
+      <c r="W83" t="s">
+        <v>26</v>
+      </c>
+      <c r="X83">
+        <v>0.002976399999994328</v>
+      </c>
+      <c r="Y83">
+        <v>9</v>
+      </c>
+      <c r="Z83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.9653197503224</v>
+      </c>
+      <c r="F84">
+        <v>9.984776169285226</v>
+      </c>
+      <c r="G84">
+        <v>49.4371344737874</v>
+      </c>
+      <c r="H84">
+        <v>10.72361871271823</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="N84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="O84">
+        <v>34.80803334525164</v>
+      </c>
+      <c r="P84">
+        <v>19.16581872436752</v>
+      </c>
+      <c r="Q84">
+        <v>0.005598144845929461</v>
+      </c>
+      <c r="R84">
+        <v>0.05038487990309123</v>
+      </c>
+      <c r="S84">
+        <v>0.06525264329807251</v>
+      </c>
+      <c r="T84">
+        <v>0.04977389282754226</v>
+      </c>
+      <c r="U84">
+        <v>0.04311780763405949</v>
+      </c>
+      <c r="V84">
+        <v>0.02140800470008836</v>
+      </c>
+      <c r="W84" t="s">
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>0.003778100000005225</v>
+      </c>
+      <c r="Y84">
+        <v>9</v>
+      </c>
+      <c r="Z84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>0.004220377267098383</v>
+      </c>
+      <c r="F85">
+        <v>9.95013905757194</v>
+      </c>
+      <c r="G85">
+        <v>46.1982457960147</v>
+      </c>
+      <c r="H85">
+        <v>11.13370734625508</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+      <c r="K85">
+        <v>90</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="N85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="O85">
+        <v>33.11128882357993</v>
+      </c>
+      <c r="P85">
+        <v>19.79607859275191</v>
+      </c>
+      <c r="Q85">
+        <v>0.005615940119585378</v>
+      </c>
+      <c r="R85">
+        <v>0.0507427740618388</v>
+      </c>
+      <c r="S85">
+        <v>0.06473352442786105</v>
+      </c>
+      <c r="T85">
+        <v>0.05454260425166836</v>
+      </c>
+      <c r="U85">
+        <v>0.03960022003324989</v>
+      </c>
+      <c r="V85">
+        <v>0.03330562382590802</v>
+      </c>
+      <c r="W85" t="s">
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <v>0.001884200000006331</v>
+      </c>
+      <c r="Y85">
+        <v>9</v>
+      </c>
+      <c r="Z85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.05876928538095712</v>
+      </c>
+      <c r="F86">
+        <v>10.03381492589359</v>
+      </c>
+      <c r="G86">
+        <v>8.201818283477648</v>
+      </c>
+      <c r="H86">
+        <v>7.434000691417586</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <v>90</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="N86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="O86">
+        <v>8.587113088727307</v>
+      </c>
+      <c r="P86">
+        <v>16.43119730575459</v>
+      </c>
+      <c r="Q86">
+        <v>0.004584250984907541</v>
+      </c>
+      <c r="R86">
+        <v>0.06002414255348678</v>
+      </c>
+      <c r="S86">
+        <v>0.01901634407124455</v>
+      </c>
+      <c r="T86">
+        <v>0.09916893179738043</v>
+      </c>
+      <c r="U86">
+        <v>0.04469555317682145</v>
+      </c>
+      <c r="V86">
+        <v>0.01469288107007992</v>
+      </c>
+      <c r="W86" t="s">
+        <v>26</v>
+      </c>
+      <c r="X86">
+        <v>0.003277999999994563</v>
+      </c>
+      <c r="Y86">
+        <v>7</v>
+      </c>
+      <c r="Z86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>0.003074553203295076</v>
+      </c>
+      <c r="F87">
+        <v>10.03383201622387</v>
+      </c>
+      <c r="G87">
+        <v>111.6468805953188</v>
+      </c>
+      <c r="H87">
+        <v>9.154824134373582</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="N87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="O87">
+        <v>73.53022371698592</v>
+      </c>
+      <c r="P87">
+        <v>11.86900038723373</v>
+      </c>
+      <c r="Q87">
+        <v>0.005366176039427511</v>
+      </c>
+      <c r="R87">
+        <v>0.07159924872833841</v>
+      </c>
+      <c r="S87">
+        <v>0.09236708048151872</v>
+      </c>
+      <c r="T87">
+        <v>0.03782266980120624</v>
+      </c>
+      <c r="U87">
+        <v>0.04081529485266071</v>
+      </c>
+      <c r="V87">
+        <v>0.02190231413888477</v>
+      </c>
+      <c r="W87" t="s">
+        <v>26</v>
+      </c>
+      <c r="X87">
+        <v>0.004615799999982073</v>
+      </c>
+      <c r="Y87">
+        <v>22</v>
+      </c>
+      <c r="Z87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>359.9951047445848</v>
+      </c>
+      <c r="F88">
+        <v>10.00537719701813</v>
+      </c>
+      <c r="G88">
+        <v>36.63166941320933</v>
+      </c>
+      <c r="H88">
+        <v>5.44842859908753</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88">
+        <v>90</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="N88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="O88">
+        <v>21.86540093565351</v>
+      </c>
+      <c r="P88">
+        <v>13.61523357778646</v>
+      </c>
+      <c r="Q88">
+        <v>0.004871953447820307</v>
+      </c>
+      <c r="R88">
+        <v>0.03599192926919513</v>
+      </c>
+      <c r="S88">
+        <v>0.02834970726973872</v>
+      </c>
+      <c r="T88">
+        <v>0.04842934827855658</v>
+      </c>
+      <c r="U88">
+        <v>0.04053117130700298</v>
+      </c>
+      <c r="V88">
+        <v>0.03021304413054271</v>
+      </c>
+      <c r="W88" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>0.001809299999990799</v>
+      </c>
+      <c r="Y88">
+        <v>8</v>
+      </c>
+      <c r="Z88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>0.04336811470275513</v>
+      </c>
+      <c r="F89">
+        <v>9.784735049703007</v>
+      </c>
+      <c r="G89">
+        <v>118.093515356462</v>
+      </c>
+      <c r="H89">
+        <v>14.05033272075252</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+      <c r="K89">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="N89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="O89">
+        <v>92.75132988878292</v>
+      </c>
+      <c r="P89">
+        <v>16.07029492233642</v>
+      </c>
+      <c r="Q89">
+        <v>0.005363626992010178</v>
+      </c>
+      <c r="R89">
+        <v>0.1134393052269442</v>
+      </c>
+      <c r="S89">
+        <v>0.1853696679563608</v>
+      </c>
+      <c r="T89">
+        <v>0.1051142032131717</v>
+      </c>
+      <c r="U89">
+        <v>0.04016027122565936</v>
+      </c>
+      <c r="V89">
+        <v>0.117887130643243</v>
+      </c>
+      <c r="W89" t="s">
+        <v>26</v>
+      </c>
+      <c r="X89">
+        <v>0.004269100000016124</v>
+      </c>
+      <c r="Y89">
+        <v>23</v>
+      </c>
+      <c r="Z89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9907729509549</v>
+      </c>
+      <c r="F90">
+        <v>10.1016778811599</v>
+      </c>
+      <c r="G90">
+        <v>116.5646003012499</v>
+      </c>
+      <c r="H90">
+        <v>9.217140653885753</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="N90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="O90">
+        <v>77.07303428080303</v>
+      </c>
+      <c r="P90">
+        <v>11.34937821784214</v>
+      </c>
+      <c r="Q90">
+        <v>0.005438074144884422</v>
+      </c>
+      <c r="R90">
+        <v>0.07688397920286044</v>
+      </c>
+      <c r="S90">
+        <v>0.09547858503655483</v>
+      </c>
+      <c r="T90">
+        <v>0.04670306758530015</v>
+      </c>
+      <c r="U90">
+        <v>0.03985034330646202</v>
+      </c>
+      <c r="V90">
+        <v>0.05941528534817105</v>
+      </c>
+      <c r="W90" t="s">
+        <v>26</v>
+      </c>
+      <c r="X90">
+        <v>0.004999800000007326</v>
+      </c>
+      <c r="Y90">
+        <v>22</v>
+      </c>
+      <c r="Z90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.04361822665921753</v>
+      </c>
+      <c r="F91">
+        <v>10.00245015134713</v>
+      </c>
+      <c r="G91">
+        <v>90.11975130191601</v>
+      </c>
+      <c r="H91">
+        <v>6.043773942428501</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>25</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="N91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="O91">
+        <v>48.83653243662918</v>
+      </c>
+      <c r="P91">
+        <v>11.19844932803231</v>
+      </c>
+      <c r="Q91">
+        <v>0.004958490463508747</v>
+      </c>
+      <c r="R91">
+        <v>0.04050884430005168</v>
+      </c>
+      <c r="S91">
+        <v>0.04726498876847688</v>
+      </c>
+      <c r="T91">
+        <v>0.01590802624646904</v>
+      </c>
+      <c r="U91">
+        <v>0.04158380513608154</v>
+      </c>
+      <c r="V91">
+        <v>0.0228105886659901</v>
+      </c>
+      <c r="W91" t="s">
+        <v>26</v>
+      </c>
+      <c r="X91">
+        <v>0.002374599999996008</v>
+      </c>
+      <c r="Y91">
+        <v>12</v>
+      </c>
+      <c r="Z91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>359.9814396158464</v>
+      </c>
+      <c r="F92">
+        <v>9.944092164224056</v>
+      </c>
+      <c r="G92">
+        <v>27.26511699838382</v>
+      </c>
+      <c r="H92">
+        <v>4.931800770360067</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>25</v>
+      </c>
+      <c r="K92">
+        <v>90</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="N92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="O92">
+        <v>17.1237268276885</v>
+      </c>
+      <c r="P92">
+        <v>13.17227197931843</v>
+      </c>
+      <c r="Q92">
+        <v>0.004645973552050548</v>
+      </c>
+      <c r="R92">
+        <v>0.03690567030282651</v>
+      </c>
+      <c r="S92">
+        <v>0.02287206044963757</v>
+      </c>
+      <c r="T92">
+        <v>0.05550236252845278</v>
+      </c>
+      <c r="U92">
+        <v>0.04285478238196991</v>
+      </c>
+      <c r="V92">
+        <v>0.0352037313234615</v>
+      </c>
+      <c r="W92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X92">
+        <v>0.001588800000007495</v>
+      </c>
+      <c r="Y92">
+        <v>8</v>
+      </c>
+      <c r="Z92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>359.9688712497384</v>
+      </c>
+      <c r="F93">
+        <v>9.966735600713074</v>
+      </c>
+      <c r="G93">
+        <v>36.15145901306468</v>
+      </c>
+      <c r="H93">
+        <v>6.935759568137379</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25</v>
+      </c>
+      <c r="K93">
+        <v>90</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="N93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="O93">
+        <v>23.35172750475223</v>
+      </c>
+      <c r="P93">
+        <v>15.32617692177842</v>
+      </c>
+      <c r="Q93">
+        <v>0.005076276692915962</v>
+      </c>
+      <c r="R93">
+        <v>0.03916916038583935</v>
+      </c>
+      <c r="S93">
+        <v>0.03407275870867837</v>
+      </c>
+      <c r="T93">
+        <v>0.05146479957753477</v>
+      </c>
+      <c r="U93">
+        <v>0.03762659337715366</v>
+      </c>
+      <c r="V93">
+        <v>0.01094984061486658</v>
+      </c>
+      <c r="W93" t="s">
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>0.003164800000007517</v>
+      </c>
+      <c r="Y93">
+        <v>8</v>
+      </c>
+      <c r="Z93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>0.009737254416324722</v>
+      </c>
+      <c r="F94">
+        <v>10.03300899816481</v>
+      </c>
+      <c r="G94">
+        <v>159.4743287972219</v>
+      </c>
+      <c r="H94">
+        <v>12.51036043905408</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="N94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="O94">
+        <v>135.9058913518327</v>
+      </c>
+      <c r="P94">
+        <v>9.249156984578068</v>
+      </c>
+      <c r="Q94">
+        <v>0.002509723906104203</v>
+      </c>
+      <c r="R94">
+        <v>0.03546492936405389</v>
+      </c>
+      <c r="S94">
+        <v>0.02423327391676162</v>
+      </c>
+      <c r="T94">
+        <v>0.05055429856684283</v>
+      </c>
+      <c r="U94">
+        <v>0.0357022177527057</v>
+      </c>
+      <c r="V94">
+        <v>0.01857097125728048</v>
+      </c>
+      <c r="W94" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94">
+        <v>0.004392999999993208</v>
+      </c>
+      <c r="Y94">
+        <v>24</v>
+      </c>
+      <c r="Z94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.9823166065312</v>
+      </c>
+      <c r="F95">
+        <v>9.998297668504861</v>
+      </c>
+      <c r="G95">
+        <v>109.1282087392729</v>
+      </c>
+      <c r="H95">
+        <v>10.89590312331791</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>25</v>
+      </c>
+      <c r="K95">
+        <v>90</v>
+      </c>
+      <c r="L95">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="N95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="O95">
+        <v>77.09664879746137</v>
+      </c>
+      <c r="P95">
+        <v>13.87081044488647</v>
+      </c>
+      <c r="Q95">
+        <v>0.005607875271622959</v>
+      </c>
+      <c r="R95">
+        <v>0.08637402777333734</v>
+      </c>
+      <c r="S95">
+        <v>0.1250262654200097</v>
+      </c>
+      <c r="T95">
+        <v>0.04876127615048682</v>
+      </c>
+      <c r="U95">
+        <v>0.03607118594594024</v>
+      </c>
+      <c r="V95">
+        <v>0.003919133209217913</v>
+      </c>
+      <c r="W95" t="s">
+        <v>26</v>
+      </c>
+      <c r="X95">
+        <v>0.00604270000002316</v>
+      </c>
+      <c r="Y95">
+        <v>22</v>
+      </c>
+      <c r="Z95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.9975888340769</v>
+      </c>
+      <c r="F96">
+        <v>9.984655109063693</v>
+      </c>
+      <c r="G96">
+        <v>129.447529072152</v>
+      </c>
+      <c r="H96">
+        <v>10.26961098715149</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>25</v>
+      </c>
+      <c r="K96">
+        <v>90</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="N96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="O96">
+        <v>92.47404879609337</v>
+      </c>
+      <c r="P96">
+        <v>10.69632008162418</v>
+      </c>
+      <c r="Q96">
+        <v>0.00541032529301225</v>
+      </c>
+      <c r="R96">
+        <v>0.102485793872465</v>
+      </c>
+      <c r="S96">
+        <v>0.1186062428067951</v>
+      </c>
+      <c r="T96">
+        <v>0.09186704175594483</v>
+      </c>
+      <c r="U96">
+        <v>0.03989938055522552</v>
+      </c>
+      <c r="V96">
+        <v>0.01242030367924827</v>
+      </c>
+      <c r="W96" t="s">
+        <v>26</v>
+      </c>
+      <c r="X96">
+        <v>0.004266999999998689</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>359.9899510063217</v>
+      </c>
+      <c r="F97">
+        <v>9.998811058211</v>
+      </c>
+      <c r="G97">
+        <v>41.1377863283173</v>
+      </c>
+      <c r="H97">
+        <v>5.303986909833275</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>25</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="N97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="O97">
+        <v>23.74355496103273</v>
+      </c>
+      <c r="P97">
+        <v>13.30186957253376</v>
+      </c>
+      <c r="Q97">
+        <v>0.004878320137736181</v>
+      </c>
+      <c r="R97">
+        <v>0.03510457439188649</v>
+      </c>
+      <c r="S97">
+        <v>0.02943029968705806</v>
+      </c>
+      <c r="T97">
+        <v>0.04453505927867654</v>
+      </c>
+      <c r="U97">
+        <v>0.03775898157776029</v>
+      </c>
+      <c r="V97">
+        <v>0.01130477370849066</v>
+      </c>
+      <c r="W97" t="s">
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <v>0.001588400000002821</v>
+      </c>
+      <c r="Y97">
+        <v>8</v>
+      </c>
+      <c r="Z97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>0.05109970634525922</v>
+      </c>
+      <c r="F98">
+        <v>10.00132126861568</v>
+      </c>
+      <c r="G98">
+        <v>38.68508084496619</v>
+      </c>
+      <c r="H98">
+        <v>13.806782321537</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>25</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="N98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="O98">
+        <v>29.58490884261814</v>
+      </c>
+      <c r="P98">
+        <v>23.36401448242705</v>
+      </c>
+      <c r="Q98">
+        <v>0.005891611428642005</v>
+      </c>
+      <c r="R98">
+        <v>0.05726956436149853</v>
+      </c>
+      <c r="S98">
+        <v>0.0731720452378886</v>
+      </c>
+      <c r="T98">
+        <v>0.07615846395831685</v>
+      </c>
+      <c r="U98">
+        <v>0.03870356823220043</v>
+      </c>
+      <c r="V98">
+        <v>0.02987097390023036</v>
+      </c>
+      <c r="W98" t="s">
+        <v>26</v>
+      </c>
+      <c r="X98">
+        <v>0.002043700000001536</v>
+      </c>
+      <c r="Y98">
+        <v>9</v>
+      </c>
+      <c r="Z98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.01267682758411474</v>
+      </c>
+      <c r="F99">
+        <v>10.07058275881406</v>
+      </c>
+      <c r="G99">
+        <v>150.6266370555235</v>
+      </c>
+      <c r="H99">
+        <v>14.76540224644432</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="N99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="O99">
+        <v>128.996645134817</v>
+      </c>
+      <c r="P99">
+        <v>12.69144707425078</v>
+      </c>
+      <c r="Q99">
+        <v>0.002916874348873577</v>
+      </c>
+      <c r="R99">
+        <v>0.04444094452657099</v>
+      </c>
+      <c r="S99">
+        <v>0.04412943965934577</v>
+      </c>
+      <c r="T99">
+        <v>0.06837391954672421</v>
+      </c>
+      <c r="U99">
+        <v>0.03916144789414087</v>
+      </c>
+      <c r="V99">
+        <v>0.04417851092129592</v>
+      </c>
+      <c r="W99" t="s">
+        <v>26</v>
+      </c>
+      <c r="X99">
+        <v>0.004799999999988813</v>
+      </c>
+      <c r="Y99">
+        <v>24</v>
+      </c>
+      <c r="Z99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>0.0439360223993247</v>
+      </c>
+      <c r="F100">
+        <v>9.907905551425911</v>
+      </c>
+      <c r="G100">
+        <v>131.8862253299267</v>
+      </c>
+      <c r="H100">
+        <v>9.669308785524754</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100">
+        <v>90</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="N100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="O100">
+        <v>92.6559347963323</v>
+      </c>
+      <c r="P100">
+        <v>9.826844249802546</v>
+      </c>
+      <c r="Q100">
+        <v>0.005291503423703015</v>
+      </c>
+      <c r="R100">
+        <v>0.09846295287593954</v>
+      </c>
+      <c r="S100">
+        <v>0.1077364247149131</v>
+      </c>
+      <c r="T100">
+        <v>0.08822871189108683</v>
+      </c>
+      <c r="U100">
+        <v>0.0438161354729003</v>
+      </c>
+      <c r="V100">
+        <v>0.05810166227447158</v>
+      </c>
+      <c r="W100" t="s">
+        <v>26</v>
+      </c>
+      <c r="X100">
+        <v>0.005441600000011704</v>
+      </c>
+      <c r="Y100">
+        <v>26</v>
+      </c>
+      <c r="Z100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>359.9809543304743</v>
+      </c>
+      <c r="F101">
+        <v>10.03148705507603</v>
+      </c>
+      <c r="G101">
+        <v>120.9955105173635</v>
+      </c>
+      <c r="H101">
+        <v>8.900201444947182</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="N101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="O101">
+        <v>79.4893526807455</v>
+      </c>
+      <c r="P101">
+        <v>10.49845791905614</v>
+      </c>
+      <c r="Q101">
+        <v>0.005399209796099811</v>
+      </c>
+      <c r="R101">
+        <v>0.07731747524266093</v>
+      </c>
+      <c r="S101">
+        <v>0.09139184539456044</v>
+      </c>
+      <c r="T101">
+        <v>0.05130623013572016</v>
+      </c>
+      <c r="U101">
+        <v>0.03891764681073596</v>
+      </c>
+      <c r="V101">
+        <v>0.0205551734000446</v>
+      </c>
+      <c r="W101" t="s">
+        <v>26</v>
+      </c>
+      <c r="X101">
+        <v>0.003917400000005955</v>
+      </c>
+      <c r="Y101">
+        <v>22</v>
+      </c>
+      <c r="Z101">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
